--- a/sensors/FluksoTechnical.xlsx
+++ b/sensors/FluksoTechnical.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="385">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -987,36 +987,144 @@
     <t xml:space="preserve">63602be345d4d8ae3171a6bd04947d2c</t>
   </si>
   <si>
+    <t xml:space="preserve">PV_Brun</t>
+  </si>
+  <si>
     <t xml:space="preserve">28e3c147dba04c002056d5f9bd834a42</t>
   </si>
   <si>
     <t xml:space="preserve">8b4d41ebe4f3d0cd5ddd9c5cc9ee0157</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">PV_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Brun-</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">89fad527d79bc1ccdfc5b556db4c13b3</t>
   </si>
   <si>
     <t xml:space="preserve">45a2eeac59d4abc4d8544d7ff11b68a9</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">PV_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Gris</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">19f64726ac4fb5a24e9e9fd5d3ae4faf</t>
   </si>
   <si>
     <t xml:space="preserve">2cc6fc7d84eacc63eb16222c12aebbe8</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">PV_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Gris-</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">5b4b2aaa84498a6a78e047ce101ceb19</t>
   </si>
   <si>
     <t xml:space="preserve">df901ac9366a927bf2119bfa3e7a75fc</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">PV_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Noir</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">5a0846b7dce5f176b06891af1ed106cf</t>
   </si>
   <si>
     <t xml:space="preserve">92c55fa626dbb3f09f5298814c5fbd1a</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">PV_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Noir-</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">e4159ab40d971f6191b5d66f90ee9bac</t>
   </si>
   <si>
@@ -1093,6 +1201,27 @@
   </si>
   <si>
     <t xml:space="preserve">2d7856bbf7a791370eae5f10cd2e1002</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">PV_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Brun</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">0ef5cbd1201990d7057c1ee1f0f9d231</t>
@@ -1196,12 +1325,6 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1219,6 +1342,12 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1264,7 +1393,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1288,12 +1417,8 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1326,7 +1451,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1334,23 +1475,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1358,7 +1483,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1398,15 +1523,18 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2 3 2" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -3915,7 +4043,7 @@
   <dimension ref="A1:L109"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C113" activeCellId="0" sqref="C113"/>
+      <selection pane="topLeft" activeCell="M105" activeCellId="0" sqref="M105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3923,7 +4051,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="17" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="17" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="17" width="9.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="17" width="9.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="7.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="36.14"/>
@@ -5821,7 +5949,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>73</v>
       </c>
@@ -5838,10 +5966,10 @@
         <v>116</v>
       </c>
       <c r="L82" s="19" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>73</v>
       </c>
@@ -5849,19 +5977,19 @@
         <v>-1</v>
       </c>
       <c r="I83" s="19" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J83" s="19" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K83" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="L83" s="19" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L83" s="26" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>73</v>
       </c>
@@ -5869,19 +5997,19 @@
         <v>1</v>
       </c>
       <c r="I84" s="19" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="J84" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K84" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="L84" s="19" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L84" s="26" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>73</v>
       </c>
@@ -5889,19 +6017,19 @@
         <v>-1</v>
       </c>
       <c r="I85" s="19" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="J85" s="19" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K85" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="L85" s="19" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L85" s="26" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>73</v>
       </c>
@@ -5909,19 +6037,19 @@
         <v>1</v>
       </c>
       <c r="I86" s="19" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="J86" s="19" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="K86" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="L86" s="19" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L86" s="26" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>73</v>
       </c>
@@ -5929,16 +6057,16 @@
         <v>-1</v>
       </c>
       <c r="I87" s="19" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="J87" s="19" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="K87" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="L87" s="19" t="s">
-        <v>267</v>
+      <c r="L87" s="26" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5949,10 +6077,10 @@
         <v>1</v>
       </c>
       <c r="I88" s="19" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="J88" s="19" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="K88" s="20" t="s">
         <v>116</v>
@@ -5969,10 +6097,10 @@
         <v>-1</v>
       </c>
       <c r="I89" s="19" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="J89" s="19" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="K89" s="20" t="s">
         <v>116</v>
@@ -5989,10 +6117,10 @@
         <v>1</v>
       </c>
       <c r="I90" s="19" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="J90" s="19" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="K90" s="20" t="s">
         <v>116</v>
@@ -6009,10 +6137,10 @@
         <v>-1</v>
       </c>
       <c r="I91" s="19" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="J91" s="25" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="K91" s="20" t="s">
         <v>116</v>
@@ -6029,10 +6157,10 @@
         <v>1</v>
       </c>
       <c r="I92" s="19" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="J92" s="19" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="K92" s="20" t="s">
         <v>116</v>
@@ -6049,10 +6177,10 @@
         <v>-1</v>
       </c>
       <c r="I93" s="25" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="J93" s="19" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="K93" s="20" t="s">
         <v>116</v>
@@ -6072,10 +6200,10 @@
         <v>1</v>
       </c>
       <c r="I94" s="19" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="J94" s="19" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="K94" s="20" t="s">
         <v>116</v>
@@ -6095,10 +6223,10 @@
         <v>-1</v>
       </c>
       <c r="I95" s="19" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="J95" s="19" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="K95" s="20" t="s">
         <v>116</v>
@@ -6118,10 +6246,10 @@
         <v>1</v>
       </c>
       <c r="I96" s="19" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="J96" s="19" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="K96" s="20" t="s">
         <v>116</v>
@@ -6141,10 +6269,10 @@
         <v>-1</v>
       </c>
       <c r="I97" s="19" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="J97" s="19" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="K97" s="20" t="s">
         <v>116</v>
@@ -6164,10 +6292,10 @@
         <v>1</v>
       </c>
       <c r="I98" s="19" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="J98" s="19" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="K98" s="20" t="s">
         <v>116</v>
@@ -6187,10 +6315,10 @@
         <v>-1</v>
       </c>
       <c r="I99" s="19" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="J99" s="19" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="K99" s="20" t="s">
         <v>116</v>
@@ -6199,7 +6327,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
         <v>79</v>
       </c>
@@ -6207,19 +6335,19 @@
         <v>1</v>
       </c>
       <c r="I100" s="19" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="J100" s="19" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="K100" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="L100" s="19" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L100" s="26" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
         <v>79</v>
       </c>
@@ -6227,19 +6355,19 @@
         <v>-1</v>
       </c>
       <c r="I101" s="19" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="J101" s="19" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="K101" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="L101" s="19" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L101" s="26" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
         <v>79</v>
       </c>
@@ -6247,19 +6375,19 @@
         <v>1</v>
       </c>
       <c r="I102" s="19" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="J102" s="19" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="K102" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="L102" s="19" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L102" s="26" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>79</v>
       </c>
@@ -6267,19 +6395,19 @@
         <v>-1</v>
       </c>
       <c r="I103" s="19" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="J103" s="19" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="K103" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="L103" s="19" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L103" s="26" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
         <v>79</v>
       </c>
@@ -6287,19 +6415,19 @@
         <v>1</v>
       </c>
       <c r="I104" s="19" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="J104" s="19" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="K104" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="L104" s="19" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L104" s="26" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>79</v>
       </c>
@@ -6307,16 +6435,16 @@
         <v>-1</v>
       </c>
       <c r="I105" s="19" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="J105" s="19" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="K105" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="L105" s="19" t="s">
-        <v>267</v>
+      <c r="L105" s="26" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6330,16 +6458,16 @@
         <v>1</v>
       </c>
       <c r="I106" s="19" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="J106" s="19" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="K106" s="19" t="s">
         <v>116</v>
       </c>
       <c r="L106" s="19" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6353,16 +6481,16 @@
         <v>-1</v>
       </c>
       <c r="I107" s="19" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="J107" s="19" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="K107" s="20" t="s">
         <v>116</v>
       </c>
       <c r="L107" s="19" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6376,16 +6504,16 @@
         <v>1</v>
       </c>
       <c r="I108" s="19" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="J108" s="19" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="K108" s="19" t="s">
         <v>116</v>
       </c>
       <c r="L108" s="19" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6399,16 +6527,16 @@
         <v>-1</v>
       </c>
       <c r="I109" s="19" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="J109" s="19" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="K109" s="20" t="s">
         <v>116</v>
       </c>
       <c r="L109" s="19" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>

--- a/sensors/FluksoTechnical.xlsx
+++ b/sensors/FluksoTechnical.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\halex\Documents\ULB\VDE\Voisin-d-energie-ULB\sensors\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61721EF-AD25-494F-A751-90E696FA2686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Events" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Experiments" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Groups" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Installations" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Flukso" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Sensors" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Events" sheetId="1" r:id="rId1"/>
+    <sheet name="Experiments" sheetId="2" r:id="rId2"/>
+    <sheet name="Groups" sheetId="3" r:id="rId3"/>
+    <sheet name="Installations" sheetId="4" r:id="rId4"/>
+    <sheet name="Flukso" sheetId="5" r:id="rId5"/>
+    <sheet name="Sensors" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,975 +30,975 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="385">
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InstallationId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FlmId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDB003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FL08000477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Installation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDB002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FL08000476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDB001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FL08000475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDB004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FL08000472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDB011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FL08000470</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDB005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FL08000481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDB008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FL08000433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDB007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FL08000436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FL08000437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDB009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FL08000443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDB010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FL08000482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDB006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FL08000471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDB012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FL08000405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FL08000442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDB013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FL08000440</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FL08000474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDB014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FL08000438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDB020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FL08000447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FL08000448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDB015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FL08000445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDB016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FL08000453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDB017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FL08000446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FL08000466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDB018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FL08000468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDB019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FL08000465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mail José</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en attente du mot de passe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wifi a reconfigurer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="390">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>InstallationId</t>
+  </si>
+  <si>
+    <t>FlmId</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>CDB003</t>
+  </si>
+  <si>
+    <t>FL08000477</t>
+  </si>
+  <si>
+    <t>Installation</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>CDB002</t>
+  </si>
+  <si>
+    <t>FL08000476</t>
+  </si>
+  <si>
+    <t>CDB001</t>
+  </si>
+  <si>
+    <t>FL08000475</t>
+  </si>
+  <si>
+    <t>CDB004</t>
+  </si>
+  <si>
+    <t>FL08000472</t>
+  </si>
+  <si>
+    <t>CDB011</t>
+  </si>
+  <si>
+    <t>FL08000470</t>
+  </si>
+  <si>
+    <t>CDB005</t>
+  </si>
+  <si>
+    <t>FL08000481</t>
+  </si>
+  <si>
+    <t>CDB008</t>
+  </si>
+  <si>
+    <t>FL08000433</t>
+  </si>
+  <si>
+    <t>CDB007</t>
+  </si>
+  <si>
+    <t>FL08000436</t>
+  </si>
+  <si>
+    <t>FL08000437</t>
+  </si>
+  <si>
+    <t>CDB009</t>
+  </si>
+  <si>
+    <t>FL08000443</t>
+  </si>
+  <si>
+    <t>CDB010</t>
+  </si>
+  <si>
+    <t>FL08000482</t>
+  </si>
+  <si>
+    <t>CDB006</t>
+  </si>
+  <si>
+    <t>FL08000471</t>
+  </si>
+  <si>
+    <t>CDB012</t>
+  </si>
+  <si>
+    <t>FL08000405</t>
+  </si>
+  <si>
+    <t>FL08000442</t>
+  </si>
+  <si>
+    <t>CDB013</t>
+  </si>
+  <si>
+    <t>FL08000440</t>
+  </si>
+  <si>
+    <t>FL08000474</t>
+  </si>
+  <si>
+    <t>CDB014</t>
+  </si>
+  <si>
+    <t>FL08000438</t>
+  </si>
+  <si>
+    <t>CDB020</t>
+  </si>
+  <si>
+    <t>FL08000447</t>
+  </si>
+  <si>
+    <t>FL08000448</t>
+  </si>
+  <si>
+    <t>CDB015</t>
+  </si>
+  <si>
+    <t>FL08000445</t>
+  </si>
+  <si>
+    <t>CDB016</t>
+  </si>
+  <si>
+    <t>FL08000453</t>
+  </si>
+  <si>
+    <t>CDB017</t>
+  </si>
+  <si>
+    <t>FL08000446</t>
+  </si>
+  <si>
+    <t>FL08000466</t>
+  </si>
+  <si>
+    <t>CDB018</t>
+  </si>
+  <si>
+    <t>FL08000468</t>
+  </si>
+  <si>
+    <t>CDB019</t>
+  </si>
+  <si>
+    <t>FL08000465</t>
+  </si>
+  <si>
+    <t>mail José</t>
+  </si>
+  <si>
+    <t>en attente du mot de passe</t>
+  </si>
+  <si>
+    <t>wifi a reconfigurer</t>
   </si>
   <si>
     <t xml:space="preserve">wifi a modifier ( en cours ) </t>
   </si>
   <si>
-    <t xml:space="preserve">sensors a repositionner</t>
+    <t>sensors a repositionner</t>
   </si>
   <si>
     <t xml:space="preserve">sensors a repositionner </t>
   </si>
   <si>
-    <t xml:space="preserve">j'ai modifié le wifi (c'est OK) - Nicolas Poncelet     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">il faut un espace entre Sapiniere et 67 - Jerome de Hemptine   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">wifi a modifier ( en cours ) - Philippe Draguet     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sensors a repositionner - Jacques Laurent     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check FKL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAD-CONFIG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phase L2 et L3, L1 manque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Un seul capteur sur PV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAD-PSW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seule L3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No sensors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seul L3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uniquement PV, pas MAINS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECHASC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FL08000434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHECK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Génération sur 2 phases seulement ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FL08000439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECHBUA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FL06424032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FL08000469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECHL16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FL08000441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECHL05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FL08000479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coupures, plus de graph depuis un mois</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GroupId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Premier groupe test du 29/10/21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sans CDB14 et CDB12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Echappée: Vue globale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InstalationId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CBT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MainsSensors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PVSensors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TST001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tenreuken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RougeGorge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Echappée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InstallDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FirstRec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LastRec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SensorId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Token</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40e2b2f4106ffa87090e7988a36c17eb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cb5e4a6475b99ca8056faf7088daef7d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">electricity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23197113c4cb17e209760f56b44e8f5a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2c0b91db342c6501bdac0f083575c92e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f5c8ba43bf20277cdf532178c640b7b5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">935829a6edf2260e227ed742d2a37fdc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phase L2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7bfea4b658d31d7539e091e9ae863b1c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13c8b268091be7f5af9a9251bbb79ed9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phase L2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d943bd04133a4e13171bef88c6d109dc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60ce3e95cc7ebb877ddbdc1c98e90007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phase L3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c4f7fbdfdbeebd4f56355865a252991f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5bb020e0b4ab1fc755db8fa5636f0687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phase L3-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1f6984e24c0d438dec15358f616eff80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b121d4fb8e63af79734a477786ad0400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PV sur phase L3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3d9d8cb8fce67f34fdb3a26f17d2c8fe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62170de9607b3f0c02aa5f808bf10226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PV sur phase L3-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ea1f0b6ade226222891fbc4fd955e53f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ed68c48411764a8f16d89cd775314214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6c1d1c616e6c356b59cafd917698a220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0adaf8dc594d5f8ada00d785261329b5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8648e73bfb0f23f1bbcb87a05382e776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">986c5226d46f3a075150d8791ce0ad41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ecf77a886bf7effe61c88356d3f83e35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6f08b1859b365a37508eb1647d1b99aa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35ee8f26e81dacd93b3bb8aa73e9d1ed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">998cc52096a8e4a99d347e9fe11073bf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aa059ae16bdf470992990199a101c6ae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">090203b366c23b1b598f1814ff4a4e8d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PV-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cccc3c8872da3a6ad5483db9909f88f7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41bde54d16ae0fdc7671fa000948896f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mains Phase L3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49affd668b8a0504518bcb83557e2377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ebf3926a75d2ebc7067602605a190c29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mains Phase L3-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">344c2cf3abef7674dc1b2411dd8dfe45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5d6897908d2f252ec98f980ba605e148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mains phase 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">330c956d24c8e84d9c83d39141854054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a3f22721ea585d1174dfd62a7f09b191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mains phase 1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5dd97cc796c3d0b649aa98a05f5d7830</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2dc7076a455332e998823abd9b85e320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phase L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32f9b3a2164690d8d2b42a459cd38a92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65529137284cd11f114afaf6dddb9bb6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phase L1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1b4affbe1fdcd3aadc053fde1a86ac55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3da1e2d40a665cb0dbd6b8a8536fd417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PV sur phase L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85dbfefd3073ebbd290c1b150f09dae7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adcf9fcff7dd0088c445ba98af902020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PV sur phase L1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80ade0d5323ad4ec7da5834023599df4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a533382ba039ee862541538283980a77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PV sur phase L2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93657f3b084f18747c578b8867fe77f2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">757bce3cf97b21003587a2ee9c3710c0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PV sur phase L2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">238684b3f204eb39847337330f66f529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5753cd95aa36e6b5fed7a253cd1c8603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a3071da94b40369cdc837faf4efb1d4c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">be130276f8e6733a11d0855f8279019a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bd66df9112f8dd23b9d7845ca6cc96fa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13660396d5ad190b2013071ea4039517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2f922168cde4e6f9b75f8b63e61c0a14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c4bd82ec8d4f6ae0740540051f041829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f62ac11f122ebd9534b34c8e16160da5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c6afb9a083b07db1296cf1ffe9544b30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mains phase 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40df1f2c3d39240de5d8c3b4a3510337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3cc4adaeb35ce17f2d0c471617eecc04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mains phase 2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c2cf930c1a60eab9ff8e98ad78f530f4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a438e2bc2fa3677b8ad4f6c029ed8583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mains phase 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a76c4abd63d96bf1cb56c3f956a87fa0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0e0cd34ce1740e271d64a00943bbde2c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mains phase 3-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9a58eabd531d52d2e64fdfd1b2aaa9dd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31ea331799e89678374a28622ad167f7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3ef0e745e0c6b616b5ded391085476bc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d6d463da062fa55ae826f0b7c6485c9e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">869294679a706dd0091cee0b1ff88ff6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">771cc72fc7f2ec855a71999ed4eef875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d8dc10ece9e8973ecda63a2e2d1059e0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c3dd29219d6189c9fae663d922e8a0f2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f64e95edac3df3854ac28069ef08bfbf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8c41521f1b29091e7df8dcece4377779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mains L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50bf8524dfe5db96a6af52998ff4cf4e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">db70727a2add0a2b9979992c55b6f3bb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mains L1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6bc57fcc147371816407110daff4b0ce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cf6c99f8adbf31f0ccf06b0060bcf66c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5ecf97d37a9235191c65a5b6e2e1e5af</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0f5f74eb8b21c86f0e3fa3c6d114b386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37f6e75b0558d760cf6a39b8c495805a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cb38bb18d1a86a8bc67d4b2ef83b7eff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mains</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dc3714a25960f4185221bebb1d94c93f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8c0d24ff9988bfe562956f33c154271f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mains-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c6d4cffdb1c53b24f5a52d4965ef69ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62b387bd9a42c426de8fc1e2abc1918c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39d639eb063d00f642d86691225889e0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2ca5bee20bfc8f15092c106dd277299f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8747e7f56951c277ee73ab60e7f5c0d0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e7f260af26c63efd4e7f14e0be9ed0bf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ce78f73c6a70049ee87066284a67399a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">243fa7d54a673f17b8494ce8e05e44ff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b6115654a8f8ba91b915ced13c4cb207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feaceff735ba261c3c6cef60cf972941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">df29994e56cd7bdd144cfd022622159f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50b3b2f18878e1f5d39cab882c56864b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00267127c5aa382da3077e862c9603f0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09ad492e1c20d284b22819ff75e51b69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">main</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cf88f96d486dc976a7b01511bd9b55e7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ad29f2fadb6f38767b0b28b477b25c06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">main-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7c902f3f18b64a0a551cb396725584b9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a8dd05437e3f9bbd49727d56a5a37048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78e4d001e4dbb0746d55547ba6f6a133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">df9f03aa31499d232b57d880ef37c280</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FL08000480</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e97c0cd5196a88583a02a75479694816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e8718c8af6ee586b79f9df58be696a0a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7bc11e8e19bac34ab4764df2420c7575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ecdc2a9f45100cc863af12a0b8bc5c49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brun-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5f65670e0c33c3abf6293761f398db57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36cfa554a21886938264e2b26b8e0b9e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71072beccdbfce63907c473965c3624b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89050ee2a15bd9a710064c8648582dfb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gris-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f81496229d04833f768a443e241b8239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">037267a1814cabec4a12c96720f7873a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40d14d6a8353e0caca172a509388dcda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ecdf2f0df932dedf86454a74c5281217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noir-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63a9ed5d527a4ef7f924d3efd5b10f1b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18fda2e30b422b5f48497c2aa8b08fc4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">main black</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e201bb5fc0e94602f33a132e16d1fe4b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41c1bf7c4e5323a3bb28ef926c2e1da8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">main black-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bb30a2ec8a2f4aff0986ae0f85ab8c7e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57eb8ee0b1eff251078eec11e74d7bd1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">main blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d73ffe28e387a4ae82c3ddb2f7ca5374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">516a20629dedacf4722589fe2dc80271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">main blue-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e9c1e2ec20dfbcc44b0e38fb731727c7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54b63c3fa69f0baefda85d0e38cca356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">main red</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13c7e6073aa6a875013e571727dd3eb7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f38384854ed47dad20621818d84adef2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">main red-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9b8f9c306a060e94e2a1726dd4269db9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22466432caa4c13cf4ccfe11474c78b1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2e0d27fbbd4c50ce2eebced947d0e115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2edb7867f6e2208afa236fade0e39459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6d87806dbb49ab586712c0dbb708ff94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bcd929261ffb58092356f4fb712b7d55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">757eaf59e1528b5755680de652a2ad30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6ea38cb13e167b226d5404a3006a060f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62ba47e031a829ad68b82a0b0d2a1710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6c6920bbd674be782f7f85b3de6ebc85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b1d9d63d2ef41315b5ae7686aaa08171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b4c541ae8d024065dce10da7b3fed9d6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ab7ce8ff2164d6143d0f7943552c304f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b916cc2874185df5aa3e4db01a7cbee9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a0aa6354194ed449105560ebf3911aaf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">031d3e535bd743ec2a2a493643725d53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7c8e126b8e0f8f4a00a304f2a4e48f16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9cdb0cfaac4fca17f84a5366f28b70b8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2036fcddc91a2644241b2942689746fc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c6dcb13bcaaaf095c10239314cf452f6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">671b00ec9eedbac40ea073e0f2ac793d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7c5866f2d84f5a75217e06e6cba9deeb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7d9bd73121709560eb034a10ce8f8780</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ef47ddad0587e44b66155a5ad9c67e50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8c0d9a4b199dd0af2973be683c88b15b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25e7a34b746b9f085aa3af544d7990f5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baa5ca65776e2abf5479191e1b778230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b85401fd47e2a81667004161cd0c2a23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1734e085c4d79f3480626e80ea511985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5438358a0e90cfb702aa60b4feda80b4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2a8cfcc5a8f3b0cba3c8b668ace8c395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28668e334405ecce1f00148f4f9fc773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11177c1f7990fba4ee9800e642c62f3a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63602be345d4d8ae3171a6bd04947d2c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PV_Brun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28e3c147dba04c002056d5f9bd834a42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8b4d41ebe4f3d0cd5ddd9c5cc9ee0157</t>
+    <t>j'ai modifié le wifi (c'est OK) - Nicolas Poncelet     </t>
+  </si>
+  <si>
+    <t>il faut un espace entre Sapiniere et 67 - Jerome de Hemptine   </t>
+  </si>
+  <si>
+    <t>wifi a modifier ( en cours ) - Philippe Draguet     </t>
+  </si>
+  <si>
+    <t>sensors a repositionner - Jacques Laurent     </t>
+  </si>
+  <si>
+    <t>Check FKL</t>
+  </si>
+  <si>
+    <t>BAD-CONFIG</t>
+  </si>
+  <si>
+    <t>Phase L2 et L3, L1 manque</t>
+  </si>
+  <si>
+    <t>Un seul capteur sur PV</t>
+  </si>
+  <si>
+    <t>BAD-PSW</t>
+  </si>
+  <si>
+    <t>Seule L3</t>
+  </si>
+  <si>
+    <t>No sensors</t>
+  </si>
+  <si>
+    <t>Seul L3</t>
+  </si>
+  <si>
+    <t>Uniquement PV, pas MAINS</t>
+  </si>
+  <si>
+    <t>ECHASC</t>
+  </si>
+  <si>
+    <t>FL08000434</t>
+  </si>
+  <si>
+    <t>CHECK</t>
+  </si>
+  <si>
+    <t>Génération sur 2 phases seulement ?</t>
+  </si>
+  <si>
+    <t>FL08000439</t>
+  </si>
+  <si>
+    <t>ECHBUA</t>
+  </si>
+  <si>
+    <t>FL06424032</t>
+  </si>
+  <si>
+    <t>FL08000469</t>
+  </si>
+  <si>
+    <t>ECHL16</t>
+  </si>
+  <si>
+    <t>FL08000441</t>
+  </si>
+  <si>
+    <t>ECHL05</t>
+  </si>
+  <si>
+    <t>FL08000479</t>
+  </si>
+  <si>
+    <t>Coupures, plus de graph depuis un mois</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>GroupId</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Premier groupe test du 29/10/21</t>
+  </si>
+  <si>
+    <t>Sans CDB14 et CDB12</t>
+  </si>
+  <si>
+    <t>Echappée: Vue globale</t>
+  </si>
+  <si>
+    <t>InstalationId</t>
+  </si>
+  <si>
+    <t>CBT</t>
+  </si>
+  <si>
+    <t>MainsSensors</t>
+  </si>
+  <si>
+    <t>PVSensors</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>PAC</t>
+  </si>
+  <si>
+    <t>TST001</t>
+  </si>
+  <si>
+    <t>Tenreuken</t>
+  </si>
+  <si>
+    <t>RougeGorge</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>Echappée</t>
+  </si>
+  <si>
+    <t>InstallDate</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>Prod</t>
+  </si>
+  <si>
+    <t>Cons</t>
+  </si>
+  <si>
+    <t>VMC</t>
+  </si>
+  <si>
+    <t>FirstRec</t>
+  </si>
+  <si>
+    <t>LastRec</t>
+  </si>
+  <si>
+    <t>SensorId</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>40e2b2f4106ffa87090e7988a36c17eb</t>
+  </si>
+  <si>
+    <t>cb5e4a6475b99ca8056faf7088daef7d</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>23197113c4cb17e209760f56b44e8f5a</t>
+  </si>
+  <si>
+    <t>2c0b91db342c6501bdac0f083575c92e</t>
+  </si>
+  <si>
+    <t>Main-</t>
+  </si>
+  <si>
+    <t>f5c8ba43bf20277cdf532178c640b7b5</t>
+  </si>
+  <si>
+    <t>935829a6edf2260e227ed742d2a37fdc</t>
+  </si>
+  <si>
+    <t>Phase L2</t>
+  </si>
+  <si>
+    <t>7bfea4b658d31d7539e091e9ae863b1c</t>
+  </si>
+  <si>
+    <t>13c8b268091be7f5af9a9251bbb79ed9</t>
+  </si>
+  <si>
+    <t>Phase L2-</t>
+  </si>
+  <si>
+    <t>d943bd04133a4e13171bef88c6d109dc</t>
+  </si>
+  <si>
+    <t>60ce3e95cc7ebb877ddbdc1c98e90007</t>
+  </si>
+  <si>
+    <t>Phase L3</t>
+  </si>
+  <si>
+    <t>c4f7fbdfdbeebd4f56355865a252991f</t>
+  </si>
+  <si>
+    <t>5bb020e0b4ab1fc755db8fa5636f0687</t>
+  </si>
+  <si>
+    <t>Phase L3-</t>
+  </si>
+  <si>
+    <t>1f6984e24c0d438dec15358f616eff80</t>
+  </si>
+  <si>
+    <t>b121d4fb8e63af79734a477786ad0400</t>
+  </si>
+  <si>
+    <t>PV sur phase L3</t>
+  </si>
+  <si>
+    <t>3d9d8cb8fce67f34fdb3a26f17d2c8fe</t>
+  </si>
+  <si>
+    <t>62170de9607b3f0c02aa5f808bf10226</t>
+  </si>
+  <si>
+    <t>PV sur phase L3-</t>
+  </si>
+  <si>
+    <t>ea1f0b6ade226222891fbc4fd955e53f</t>
+  </si>
+  <si>
+    <t>ed68c48411764a8f16d89cd775314214</t>
+  </si>
+  <si>
+    <t>6c1d1c616e6c356b59cafd917698a220</t>
+  </si>
+  <si>
+    <t>0adaf8dc594d5f8ada00d785261329b5</t>
+  </si>
+  <si>
+    <t>8648e73bfb0f23f1bbcb87a05382e776</t>
+  </si>
+  <si>
+    <t>986c5226d46f3a075150d8791ce0ad41</t>
+  </si>
+  <si>
+    <t>ecf77a886bf7effe61c88356d3f83e35</t>
+  </si>
+  <si>
+    <t>6f08b1859b365a37508eb1647d1b99aa</t>
+  </si>
+  <si>
+    <t>35ee8f26e81dacd93b3bb8aa73e9d1ed</t>
+  </si>
+  <si>
+    <t>998cc52096a8e4a99d347e9fe11073bf</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>aa059ae16bdf470992990199a101c6ae</t>
+  </si>
+  <si>
+    <t>090203b366c23b1b598f1814ff4a4e8d</t>
+  </si>
+  <si>
+    <t>PV-</t>
+  </si>
+  <si>
+    <t>cccc3c8872da3a6ad5483db9909f88f7</t>
+  </si>
+  <si>
+    <t>41bde54d16ae0fdc7671fa000948896f</t>
+  </si>
+  <si>
+    <t>Mains Phase L3</t>
+  </si>
+  <si>
+    <t>49affd668b8a0504518bcb83557e2377</t>
+  </si>
+  <si>
+    <t>ebf3926a75d2ebc7067602605a190c29</t>
+  </si>
+  <si>
+    <t>Mains Phase L3-</t>
+  </si>
+  <si>
+    <t>344c2cf3abef7674dc1b2411dd8dfe45</t>
+  </si>
+  <si>
+    <t>5d6897908d2f252ec98f980ba605e148</t>
+  </si>
+  <si>
+    <t>Mains phase 1</t>
+  </si>
+  <si>
+    <t>330c956d24c8e84d9c83d39141854054</t>
+  </si>
+  <si>
+    <t>a3f22721ea585d1174dfd62a7f09b191</t>
+  </si>
+  <si>
+    <t>Mains phase 1-</t>
+  </si>
+  <si>
+    <t>5dd97cc796c3d0b649aa98a05f5d7830</t>
+  </si>
+  <si>
+    <t>2dc7076a455332e998823abd9b85e320</t>
+  </si>
+  <si>
+    <t>Phase L1</t>
+  </si>
+  <si>
+    <t>32f9b3a2164690d8d2b42a459cd38a92</t>
+  </si>
+  <si>
+    <t>65529137284cd11f114afaf6dddb9bb6</t>
+  </si>
+  <si>
+    <t>Phase L1-</t>
+  </si>
+  <si>
+    <t>1b4affbe1fdcd3aadc053fde1a86ac55</t>
+  </si>
+  <si>
+    <t>3da1e2d40a665cb0dbd6b8a8536fd417</t>
+  </si>
+  <si>
+    <t>PV sur phase L1</t>
+  </si>
+  <si>
+    <t>85dbfefd3073ebbd290c1b150f09dae7</t>
+  </si>
+  <si>
+    <t>adcf9fcff7dd0088c445ba98af902020</t>
+  </si>
+  <si>
+    <t>PV sur phase L1-</t>
+  </si>
+  <si>
+    <t>80ade0d5323ad4ec7da5834023599df4</t>
+  </si>
+  <si>
+    <t>a533382ba039ee862541538283980a77</t>
+  </si>
+  <si>
+    <t>PV sur phase L2</t>
+  </si>
+  <si>
+    <t>93657f3b084f18747c578b8867fe77f2</t>
+  </si>
+  <si>
+    <t>757bce3cf97b21003587a2ee9c3710c0</t>
+  </si>
+  <si>
+    <t>PV sur phase L2-</t>
+  </si>
+  <si>
+    <t>238684b3f204eb39847337330f66f529</t>
+  </si>
+  <si>
+    <t>5753cd95aa36e6b5fed7a253cd1c8603</t>
+  </si>
+  <si>
+    <t>a3071da94b40369cdc837faf4efb1d4c</t>
+  </si>
+  <si>
+    <t>be130276f8e6733a11d0855f8279019a</t>
+  </si>
+  <si>
+    <t>bd66df9112f8dd23b9d7845ca6cc96fa</t>
+  </si>
+  <si>
+    <t>13660396d5ad190b2013071ea4039517</t>
+  </si>
+  <si>
+    <t>2f922168cde4e6f9b75f8b63e61c0a14</t>
+  </si>
+  <si>
+    <t>c4bd82ec8d4f6ae0740540051f041829</t>
+  </si>
+  <si>
+    <t>f62ac11f122ebd9534b34c8e16160da5</t>
+  </si>
+  <si>
+    <t>c6afb9a083b07db1296cf1ffe9544b30</t>
+  </si>
+  <si>
+    <t>Mains phase 2</t>
+  </si>
+  <si>
+    <t>40df1f2c3d39240de5d8c3b4a3510337</t>
+  </si>
+  <si>
+    <t>3cc4adaeb35ce17f2d0c471617eecc04</t>
+  </si>
+  <si>
+    <t>Mains phase 2-</t>
+  </si>
+  <si>
+    <t>c2cf930c1a60eab9ff8e98ad78f530f4</t>
+  </si>
+  <si>
+    <t>a438e2bc2fa3677b8ad4f6c029ed8583</t>
+  </si>
+  <si>
+    <t>Mains phase 3</t>
+  </si>
+  <si>
+    <t>a76c4abd63d96bf1cb56c3f956a87fa0</t>
+  </si>
+  <si>
+    <t>0e0cd34ce1740e271d64a00943bbde2c</t>
+  </si>
+  <si>
+    <t>Mains phase 3-</t>
+  </si>
+  <si>
+    <t>9a58eabd531d52d2e64fdfd1b2aaa9dd</t>
+  </si>
+  <si>
+    <t>31ea331799e89678374a28622ad167f7</t>
+  </si>
+  <si>
+    <t>3ef0e745e0c6b616b5ded391085476bc</t>
+  </si>
+  <si>
+    <t>d6d463da062fa55ae826f0b7c6485c9e</t>
+  </si>
+  <si>
+    <t>869294679a706dd0091cee0b1ff88ff6</t>
+  </si>
+  <si>
+    <t>771cc72fc7f2ec855a71999ed4eef875</t>
+  </si>
+  <si>
+    <t>d8dc10ece9e8973ecda63a2e2d1059e0</t>
+  </si>
+  <si>
+    <t>c3dd29219d6189c9fae663d922e8a0f2</t>
+  </si>
+  <si>
+    <t>f64e95edac3df3854ac28069ef08bfbf</t>
+  </si>
+  <si>
+    <t>8c41521f1b29091e7df8dcece4377779</t>
+  </si>
+  <si>
+    <t>Mains L1</t>
+  </si>
+  <si>
+    <t>50bf8524dfe5db96a6af52998ff4cf4e</t>
+  </si>
+  <si>
+    <t>db70727a2add0a2b9979992c55b6f3bb</t>
+  </si>
+  <si>
+    <t>Mains L1-</t>
+  </si>
+  <si>
+    <t>6bc57fcc147371816407110daff4b0ce</t>
+  </si>
+  <si>
+    <t>cf6c99f8adbf31f0ccf06b0060bcf66c</t>
+  </si>
+  <si>
+    <t>5ecf97d37a9235191c65a5b6e2e1e5af</t>
+  </si>
+  <si>
+    <t>0f5f74eb8b21c86f0e3fa3c6d114b386</t>
+  </si>
+  <si>
+    <t>37f6e75b0558d760cf6a39b8c495805a</t>
+  </si>
+  <si>
+    <t>cb38bb18d1a86a8bc67d4b2ef83b7eff</t>
+  </si>
+  <si>
+    <t>Mains</t>
+  </si>
+  <si>
+    <t>dc3714a25960f4185221bebb1d94c93f</t>
+  </si>
+  <si>
+    <t>8c0d24ff9988bfe562956f33c154271f</t>
+  </si>
+  <si>
+    <t>Mains-</t>
+  </si>
+  <si>
+    <t>c6d4cffdb1c53b24f5a52d4965ef69ca</t>
+  </si>
+  <si>
+    <t>62b387bd9a42c426de8fc1e2abc1918c</t>
+  </si>
+  <si>
+    <t>39d639eb063d00f642d86691225889e0</t>
+  </si>
+  <si>
+    <t>2ca5bee20bfc8f15092c106dd277299f</t>
+  </si>
+  <si>
+    <t>8747e7f56951c277ee73ab60e7f5c0d0</t>
+  </si>
+  <si>
+    <t>e7f260af26c63efd4e7f14e0be9ed0bf</t>
+  </si>
+  <si>
+    <t>ce78f73c6a70049ee87066284a67399a</t>
+  </si>
+  <si>
+    <t>243fa7d54a673f17b8494ce8e05e44ff</t>
+  </si>
+  <si>
+    <t>b6115654a8f8ba91b915ced13c4cb207</t>
+  </si>
+  <si>
+    <t>feaceff735ba261c3c6cef60cf972941</t>
+  </si>
+  <si>
+    <t>df29994e56cd7bdd144cfd022622159f</t>
+  </si>
+  <si>
+    <t>50b3b2f18878e1f5d39cab882c56864b</t>
+  </si>
+  <si>
+    <t>00267127c5aa382da3077e862c9603f0</t>
+  </si>
+  <si>
+    <t>09ad492e1c20d284b22819ff75e51b69</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>cf88f96d486dc976a7b01511bd9b55e7</t>
+  </si>
+  <si>
+    <t>ad29f2fadb6f38767b0b28b477b25c06</t>
+  </si>
+  <si>
+    <t>main-</t>
+  </si>
+  <si>
+    <t>7c902f3f18b64a0a551cb396725584b9</t>
+  </si>
+  <si>
+    <t>a8dd05437e3f9bbd49727d56a5a37048</t>
+  </si>
+  <si>
+    <t>78e4d001e4dbb0746d55547ba6f6a133</t>
+  </si>
+  <si>
+    <t>df9f03aa31499d232b57d880ef37c280</t>
+  </si>
+  <si>
+    <t>FL08000480</t>
+  </si>
+  <si>
+    <t>e97c0cd5196a88583a02a75479694816</t>
+  </si>
+  <si>
+    <t>e8718c8af6ee586b79f9df58be696a0a</t>
+  </si>
+  <si>
+    <t>Brun</t>
+  </si>
+  <si>
+    <t>7bc11e8e19bac34ab4764df2420c7575</t>
+  </si>
+  <si>
+    <t>ecdc2a9f45100cc863af12a0b8bc5c49</t>
+  </si>
+  <si>
+    <t>Brun-</t>
+  </si>
+  <si>
+    <t>5f65670e0c33c3abf6293761f398db57</t>
+  </si>
+  <si>
+    <t>36cfa554a21886938264e2b26b8e0b9e</t>
+  </si>
+  <si>
+    <t>Gris</t>
+  </si>
+  <si>
+    <t>71072beccdbfce63907c473965c3624b</t>
+  </si>
+  <si>
+    <t>89050ee2a15bd9a710064c8648582dfb</t>
+  </si>
+  <si>
+    <t>Gris-</t>
+  </si>
+  <si>
+    <t>f81496229d04833f768a443e241b8239</t>
+  </si>
+  <si>
+    <t>037267a1814cabec4a12c96720f7873a</t>
+  </si>
+  <si>
+    <t>Noir</t>
+  </si>
+  <si>
+    <t>40d14d6a8353e0caca172a509388dcda</t>
+  </si>
+  <si>
+    <t>ecdf2f0df932dedf86454a74c5281217</t>
+  </si>
+  <si>
+    <t>Noir-</t>
+  </si>
+  <si>
+    <t>63a9ed5d527a4ef7f924d3efd5b10f1b</t>
+  </si>
+  <si>
+    <t>18fda2e30b422b5f48497c2aa8b08fc4</t>
+  </si>
+  <si>
+    <t>main black</t>
+  </si>
+  <si>
+    <t>e201bb5fc0e94602f33a132e16d1fe4b</t>
+  </si>
+  <si>
+    <t>41c1bf7c4e5323a3bb28ef926c2e1da8</t>
+  </si>
+  <si>
+    <t>main black-</t>
+  </si>
+  <si>
+    <t>bb30a2ec8a2f4aff0986ae0f85ab8c7e</t>
+  </si>
+  <si>
+    <t>57eb8ee0b1eff251078eec11e74d7bd1</t>
+  </si>
+  <si>
+    <t>main blue</t>
+  </si>
+  <si>
+    <t>d73ffe28e387a4ae82c3ddb2f7ca5374</t>
+  </si>
+  <si>
+    <t>516a20629dedacf4722589fe2dc80271</t>
+  </si>
+  <si>
+    <t>main blue-</t>
+  </si>
+  <si>
+    <t>e9c1e2ec20dfbcc44b0e38fb731727c7</t>
+  </si>
+  <si>
+    <t>54b63c3fa69f0baefda85d0e38cca356</t>
+  </si>
+  <si>
+    <t>main red</t>
+  </si>
+  <si>
+    <t>13c7e6073aa6a875013e571727dd3eb7</t>
+  </si>
+  <si>
+    <t>f38384854ed47dad20621818d84adef2</t>
+  </si>
+  <si>
+    <t>main red-</t>
+  </si>
+  <si>
+    <t>9b8f9c306a060e94e2a1726dd4269db9</t>
+  </si>
+  <si>
+    <t>22466432caa4c13cf4ccfe11474c78b1</t>
+  </si>
+  <si>
+    <t>2e0d27fbbd4c50ce2eebced947d0e115</t>
+  </si>
+  <si>
+    <t>2edb7867f6e2208afa236fade0e39459</t>
+  </si>
+  <si>
+    <t>6d87806dbb49ab586712c0dbb708ff94</t>
+  </si>
+  <si>
+    <t>bcd929261ffb58092356f4fb712b7d55</t>
+  </si>
+  <si>
+    <t>757eaf59e1528b5755680de652a2ad30</t>
+  </si>
+  <si>
+    <t>6ea38cb13e167b226d5404a3006a060f</t>
+  </si>
+  <si>
+    <t>62ba47e031a829ad68b82a0b0d2a1710</t>
+  </si>
+  <si>
+    <t>6c6920bbd674be782f7f85b3de6ebc85</t>
+  </si>
+  <si>
+    <t>b1d9d63d2ef41315b5ae7686aaa08171</t>
+  </si>
+  <si>
+    <t>b4c541ae8d024065dce10da7b3fed9d6</t>
+  </si>
+  <si>
+    <t>ab7ce8ff2164d6143d0f7943552c304f</t>
+  </si>
+  <si>
+    <t>b916cc2874185df5aa3e4db01a7cbee9</t>
+  </si>
+  <si>
+    <t>a0aa6354194ed449105560ebf3911aaf</t>
+  </si>
+  <si>
+    <t>031d3e535bd743ec2a2a493643725d53</t>
+  </si>
+  <si>
+    <t>7c8e126b8e0f8f4a00a304f2a4e48f16</t>
+  </si>
+  <si>
+    <t>9cdb0cfaac4fca17f84a5366f28b70b8</t>
+  </si>
+  <si>
+    <t>2036fcddc91a2644241b2942689746fc</t>
+  </si>
+  <si>
+    <t>c6dcb13bcaaaf095c10239314cf452f6</t>
+  </si>
+  <si>
+    <t>671b00ec9eedbac40ea073e0f2ac793d</t>
+  </si>
+  <si>
+    <t>7c5866f2d84f5a75217e06e6cba9deeb</t>
+  </si>
+  <si>
+    <t>7d9bd73121709560eb034a10ce8f8780</t>
+  </si>
+  <si>
+    <t>ef47ddad0587e44b66155a5ad9c67e50</t>
+  </si>
+  <si>
+    <t>8c0d9a4b199dd0af2973be683c88b15b</t>
+  </si>
+  <si>
+    <t>25e7a34b746b9f085aa3af544d7990f5</t>
+  </si>
+  <si>
+    <t>baa5ca65776e2abf5479191e1b778230</t>
+  </si>
+  <si>
+    <t>b85401fd47e2a81667004161cd0c2a23</t>
+  </si>
+  <si>
+    <t>1734e085c4d79f3480626e80ea511985</t>
+  </si>
+  <si>
+    <t>5438358a0e90cfb702aa60b4feda80b4</t>
+  </si>
+  <si>
+    <t>2a8cfcc5a8f3b0cba3c8b668ace8c395</t>
+  </si>
+  <si>
+    <t>28668e334405ecce1f00148f4f9fc773</t>
+  </si>
+  <si>
+    <t>11177c1f7990fba4ee9800e642c62f3a</t>
+  </si>
+  <si>
+    <t>63602be345d4d8ae3171a6bd04947d2c</t>
+  </si>
+  <si>
+    <t>PV_Brun</t>
+  </si>
+  <si>
+    <t>28e3c147dba04c002056d5f9bd834a42</t>
+  </si>
+  <si>
+    <t>8b4d41ebe4f3d0cd5ddd9c5cc9ee0157</t>
   </si>
   <si>
     <r>
@@ -1003,7 +1008,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">PV_</t>
+      <t>PV_</t>
     </r>
     <r>
       <rPr>
@@ -1013,14 +1018,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Brun-</t>
+      <t>Brun-</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">89fad527d79bc1ccdfc5b556db4c13b3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45a2eeac59d4abc4d8544d7ff11b68a9</t>
+    <t>89fad527d79bc1ccdfc5b556db4c13b3</t>
+  </si>
+  <si>
+    <t>45a2eeac59d4abc4d8544d7ff11b68a9</t>
   </si>
   <si>
     <r>
@@ -1030,7 +1035,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">PV_</t>
+      <t>PV_</t>
     </r>
     <r>
       <rPr>
@@ -1040,14 +1045,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Gris</t>
+      <t>Gris</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">19f64726ac4fb5a24e9e9fd5d3ae4faf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2cc6fc7d84eacc63eb16222c12aebbe8</t>
+    <t>19f64726ac4fb5a24e9e9fd5d3ae4faf</t>
+  </si>
+  <si>
+    <t>2cc6fc7d84eacc63eb16222c12aebbe8</t>
   </si>
   <si>
     <r>
@@ -1057,7 +1062,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">PV_</t>
+      <t>PV_</t>
     </r>
     <r>
       <rPr>
@@ -1067,14 +1072,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Gris-</t>
+      <t>Gris-</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">5b4b2aaa84498a6a78e047ce101ceb19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">df901ac9366a927bf2119bfa3e7a75fc</t>
+    <t>5b4b2aaa84498a6a78e047ce101ceb19</t>
+  </si>
+  <si>
+    <t>df901ac9366a927bf2119bfa3e7a75fc</t>
   </si>
   <si>
     <r>
@@ -1084,7 +1089,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">PV_</t>
+      <t>PV_</t>
     </r>
     <r>
       <rPr>
@@ -1094,14 +1099,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Noir</t>
+      <t>Noir</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">5a0846b7dce5f176b06891af1ed106cf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92c55fa626dbb3f09f5298814c5fbd1a</t>
+    <t>5a0846b7dce5f176b06891af1ed106cf</t>
+  </si>
+  <si>
+    <t>92c55fa626dbb3f09f5298814c5fbd1a</t>
   </si>
   <si>
     <r>
@@ -1111,7 +1116,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">PV_</t>
+      <t>PV_</t>
     </r>
     <r>
       <rPr>
@@ -1121,96 +1126,156 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Noir-</t>
+      <t>Noir-</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">e4159ab40d971f6191b5d66f90ee9bac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34ee70275fbcf31e2065e58f6d5ee319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">935f91d69c225a4924d59ce154d03de3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ebff0540acda7aa431f246464023ad78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49e9ca1a1ed34daf0a7a691d65f96af1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e753073de3dd5c0bd61a1c4b09ff7a83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96d50f0aa96ff62f594adf879cf3af4e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3e6186fc2dd85fea4483a983ecd613c0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f76adbaa1f27055977f8a18424492dda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">049392a1434ac2056929c03b63e6cd48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">996e14145efe464897352e9dce586d73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7112cb79d56af7ed28dd678df9ee342c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c5d8b69868cfd1687f24a3d249f1a884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">865bc8882fac08332cc5702921750e53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c9c2f5837080e34500e5c9fb22cd95f4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e9efdc6ad3fa763b2f8b9acac4e64c8e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76fcfad5e12f9d646c6bba43675932ef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80a7f513cbdbe4a20fcd4a0c5d8ac76e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">794892e02f1c9d470051fa0c80abf4d5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9ba8952819e8b74bee3635b2292782bc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5b4cfc7977f752cb778d69a3996771d9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9709c6b860fb01d8d3dc24bcaf20563c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bde95d02037d6e7b6d3f729a2f402176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4825f544774b7f2b651c7048d6b029ce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70cbf26b08dfd305e94d01cb2142a064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2d7856bbf7a791370eae5f10cd2e1002</t>
+    <t>e4159ab40d971f6191b5d66f90ee9bac</t>
+  </si>
+  <si>
+    <t>34ee70275fbcf31e2065e58f6d5ee319</t>
+  </si>
+  <si>
+    <t>935f91d69c225a4924d59ce154d03de3</t>
+  </si>
+  <si>
+    <t>ebff0540acda7aa431f246464023ad78</t>
+  </si>
+  <si>
+    <t>49e9ca1a1ed34daf0a7a691d65f96af1</t>
+  </si>
+  <si>
+    <t>e753073de3dd5c0bd61a1c4b09ff7a83</t>
+  </si>
+  <si>
+    <t>96d50f0aa96ff62f594adf879cf3af4e</t>
+  </si>
+  <si>
+    <t>3e6186fc2dd85fea4483a983ecd613c0</t>
+  </si>
+  <si>
+    <t>f76adbaa1f27055977f8a18424492dda</t>
+  </si>
+  <si>
+    <t>049392a1434ac2056929c03b63e6cd48</t>
+  </si>
+  <si>
+    <t>996e14145efe464897352e9dce586d73</t>
+  </si>
+  <si>
+    <t>7112cb79d56af7ed28dd678df9ee342c</t>
+  </si>
+  <si>
+    <t>c5d8b69868cfd1687f24a3d249f1a884</t>
+  </si>
+  <si>
+    <t>865bc8882fac08332cc5702921750e53</t>
+  </si>
+  <si>
+    <t>c9c2f5837080e34500e5c9fb22cd95f4</t>
+  </si>
+  <si>
+    <t>e9efdc6ad3fa763b2f8b9acac4e64c8e</t>
+  </si>
+  <si>
+    <t>76fcfad5e12f9d646c6bba43675932ef</t>
+  </si>
+  <si>
+    <t>80a7f513cbdbe4a20fcd4a0c5d8ac76e</t>
+  </si>
+  <si>
+    <t>794892e02f1c9d470051fa0c80abf4d5</t>
+  </si>
+  <si>
+    <t>9ba8952819e8b74bee3635b2292782bc</t>
+  </si>
+  <si>
+    <t>5b4cfc7977f752cb778d69a3996771d9</t>
+  </si>
+  <si>
+    <t>9709c6b860fb01d8d3dc24bcaf20563c</t>
+  </si>
+  <si>
+    <t>bde95d02037d6e7b6d3f729a2f402176</t>
+  </si>
+  <si>
+    <t>4825f544774b7f2b651c7048d6b029ce</t>
+  </si>
+  <si>
+    <t>70cbf26b08dfd305e94d01cb2142a064</t>
+  </si>
+  <si>
+    <t>2d7856bbf7a791370eae5f10cd2e1002</t>
+  </si>
+  <si>
+    <t>0ef5cbd1201990d7057c1ee1f0f9d231</t>
+  </si>
+  <si>
+    <t>24053da1eeafc481ba3142947fce7478</t>
+  </si>
+  <si>
+    <t>91909ad1090e3f433d16b6cbaba22d36</t>
+  </si>
+  <si>
+    <t>bc0be475793de329a78398ff99ce29f6</t>
+  </si>
+  <si>
+    <t>3f4b56b36132202e6a8a41b84d84e917</t>
+  </si>
+  <si>
+    <t>1c6866f151ea69b761a9443ffb2b8527</t>
+  </si>
+  <si>
+    <t>bacd7981d3e18220c2f76588284ee614</t>
+  </si>
+  <si>
+    <t>e13adef5db6429d40f7f4d27cfbea900</t>
+  </si>
+  <si>
+    <t>8ef5aea420727cd14088b86dc67034c3</t>
+  </si>
+  <si>
+    <t>aea52f21788bdf9947b1fd7477ee7a5d</t>
+  </si>
+  <si>
+    <t>f3974b8300df22ea2f9d4c696482492b</t>
+  </si>
+  <si>
+    <t>abe51f8bb2d4146b40b39779c0992bfa</t>
+  </si>
+  <si>
+    <t>L16</t>
+  </si>
+  <si>
+    <t>40fc3e3150bb1b4dcfab23585c75ce42</t>
+  </si>
+  <si>
+    <t>433116730b1da629125a7701c3fb14b3</t>
+  </si>
+  <si>
+    <t>L16-</t>
+  </si>
+  <si>
+    <t>7d333dc0b04b6003dce67a0f93115025</t>
+  </si>
+  <si>
+    <t>6140bfdf842dc232bd4f43a4c0f3e1ca</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>f472a5025995d7b72a1e5e8e443a91d3</t>
+  </si>
+  <si>
+    <t>5a3e7fb9334707900f5164effd523a9d</t>
+  </si>
+  <si>
+    <t>L5-</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">PV_</t>
+      <t>PV_</t>
     </r>
     <r>
       <rPr>
@@ -1220,109 +1285,99 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Brun</t>
+      <t>Noir-</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">0ef5cbd1201990d7057c1ee1f0f9d231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24053da1eeafc481ba3142947fce7478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91909ad1090e3f433d16b6cbaba22d36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bc0be475793de329a78398ff99ce29f6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3f4b56b36132202e6a8a41b84d84e917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1c6866f151ea69b761a9443ffb2b8527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bacd7981d3e18220c2f76588284ee614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e13adef5db6429d40f7f4d27cfbea900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8ef5aea420727cd14088b86dc67034c3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aea52f21788bdf9947b1fd7477ee7a5d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f3974b8300df22ea2f9d4c696482492b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abe51f8bb2d4146b40b39779c0992bfa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40fc3e3150bb1b4dcfab23585c75ce42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">433116730b1da629125a7701c3fb14b3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L16-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7d333dc0b04b6003dce67a0f93115025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6140bfdf842dc232bd4f43a4c0f3e1ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f472a5025995d7b72a1e5e8e443a91d3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5a3e7fb9334707900f5164effd523a9d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L5-</t>
+    <r>
+      <t>PV_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Noir</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PV_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Gris-</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PV_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Gris</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PV_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Brun-</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PV_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Brun</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
-    <numFmt numFmtId="166" formatCode="0"/>
-    <numFmt numFmtId="167" formatCode="@"/>
-    <numFmt numFmtId="168" formatCode="0.00E+00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1334,13 +1389,11 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1365,14 +1418,14 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1383,7 +1436,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1393,149 +1446,91 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1594,120 +1589,433 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L109" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:L109"/>
-  <tableColumns count="12">
-    <tableColumn id="1" name="FlmId"/>
-    <tableColumn id="2" name="Comment"/>
-    <tableColumn id="3" name="Network"/>
-    <tableColumn id="4" name="Prod"/>
-    <tableColumn id="5" name="Cons"/>
-    <tableColumn id="6" name="VMC"/>
-    <tableColumn id="7" name="FirstRec"/>
-    <tableColumn id="8" name="LastRec"/>
-    <tableColumn id="9" name="SensorId"/>
-    <tableColumn id="10" name="Token"/>
-    <tableColumn id="11" name="Type"/>
-    <tableColumn id="12" name="Function"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table8" displayName="Table8" ref="A1:F67" totalsRowShown="0">
+  <autoFilter ref="A1:F67" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="InstallationId"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="FlmId"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Source"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Status"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Comment"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table26" displayName="Table26" ref="A1:B20" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:B20"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="GroupId"/>
-    <tableColumn id="2" name="InstalationId"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table35" displayName="Table35" ref="A1:D3" totalsRowShown="0">
+  <autoFilter ref="A1:D3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Date"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Description"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="GroupId"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Comments"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table35" displayName="Table35" ref="A1:D3" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:D3"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Date"/>
-    <tableColumn id="2" name="Description"/>
-    <tableColumn id="3" name="GroupId"/>
-    <tableColumn id="4" name="Comments"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table26" displayName="Table26" ref="A1:B20" totalsRowShown="0">
+  <autoFilter ref="A1:B20" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="GroupId"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="InstalationId"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:F26" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:F26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="A1:F26" totalsRowShown="0">
+  <autoFilter ref="A1:F26" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="InstallationId"/>
-    <tableColumn id="2" name="CBT"/>
-    <tableColumn id="3" name="MainsSensors"/>
-    <tableColumn id="4" name="PVSensors"/>
-    <tableColumn id="5" name="EV"/>
-    <tableColumn id="6" name="PAC"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="InstallationId"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="CBT"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="MainsSensors"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="PVSensors"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="EV"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="PAC"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:D32" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:D32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="A1:D32" totalsRowShown="0">
+  <autoFilter ref="A1:D32" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="InstallationId"/>
-    <tableColumn id="2" name="FlmId"/>
-    <tableColumn id="3" name="InstallDate"/>
-    <tableColumn id="4" name="Version"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="InstallationId"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="FlmId"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="InstallDate"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Version"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table8" displayName="Table8" ref="A1:F67" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:F67"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="Date"/>
-    <tableColumn id="2" name="InstallationId"/>
-    <tableColumn id="3" name="FlmId"/>
-    <tableColumn id="4" name="Source"/>
-    <tableColumn id="5" name="Status"/>
-    <tableColumn id="6" name="Comment"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table1" displayName="Table1" ref="A1:L109" totalsRowShown="0">
+  <autoFilter ref="A1:L109" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="FlmId"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Comment"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Network"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Prod"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Cons"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="VMC"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="FirstRec"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="LastRec"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="SensorId"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="Token"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Type"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="Function"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
-      <selection pane="bottomRight" activeCell="D125" activeCellId="0" sqref="D125"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
+      <selection pane="bottomRight" activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="14.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="57.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="57.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.53"/>
+    <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="57.28515625" customWidth="1"/>
+    <col min="7" max="7" width="57.5703125" customWidth="1"/>
+    <col min="8" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1727,14 +2035,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>44203</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1744,14 +2052,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>44215</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -1761,14 +2069,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>44235</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -1778,14 +2086,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>44239</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -1795,14 +2103,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>44242</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -1812,14 +2120,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>44243</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -1829,14 +2137,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>44243</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -1846,14 +2154,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>44244</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -1863,14 +2171,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>44244</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -1880,14 +2188,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>44245</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -1897,14 +2205,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>44245</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -1914,14 +2222,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>44246</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -1931,14 +2239,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>44252</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -1948,14 +2256,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>44252</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -1965,14 +2273,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>44342</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -1982,14 +2290,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>44342</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -1999,14 +2307,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>44342</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -2016,14 +2324,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>44342</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>40</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -2033,14 +2341,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="n">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>44342</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>41</v>
       </c>
       <c r="D20" s="5" t="s">
@@ -2050,14 +2358,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="n">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>44344</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -2067,14 +2375,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="n">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>44344</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>45</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -2084,14 +2392,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>44347</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>47</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -2101,14 +2409,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="n">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>44347</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>48</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -2118,14 +2426,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="n">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>44348</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -2135,14 +2443,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="n">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <v>44350</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>52</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -2152,182 +2460,182 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="n">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <v>44539</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>19</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E27" s="5"/>
-      <c r="F27" s="0" t="s">
+      <c r="F27" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="n">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>44539</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>28</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E28" s="5"/>
-      <c r="F28" s="0" t="s">
+      <c r="F28" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="n">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
         <v>44539</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>36</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E29" s="5"/>
-      <c r="F29" s="0" t="s">
+      <c r="F29" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="n">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
         <v>44539</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E30" s="5"/>
-      <c r="F30" s="0" t="s">
+      <c r="F30" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="n">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
         <v>44539</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" t="s">
         <v>40</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E31" s="5"/>
-      <c r="F31" s="0" t="s">
+      <c r="F31" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="n">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
         <v>44539</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" t="s">
         <v>41</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E32" s="5"/>
-      <c r="F32" s="0" t="s">
+      <c r="F32" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="n">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
         <v>44539</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" t="s">
         <v>21</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E33" s="5"/>
-      <c r="F33" s="0" t="s">
+      <c r="F33" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="n">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
         <v>44539</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" t="s">
         <v>38</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E34" s="5"/>
-      <c r="F34" s="0" t="s">
+      <c r="F34" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="n">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
         <v>44539</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" t="s">
         <v>35</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E35" s="5"/>
-      <c r="F35" s="0" t="s">
+      <c r="F35" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="n">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
         <v>44539</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" t="s">
         <v>43</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E36" s="5"/>
-      <c r="F36" s="0" t="s">
+      <c r="F36" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="n">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
         <v>44540</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -2337,14 +2645,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="n">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
         <v>44540</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" t="s">
         <v>11</v>
       </c>
       <c r="D38" s="5" t="s">
@@ -2354,14 +2662,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="n">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
         <v>44540</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="5" t="s">
@@ -2371,14 +2679,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="n">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
         <v>44540</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="5" t="s">
@@ -2388,14 +2696,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="n">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
         <v>44540</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -2405,14 +2713,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="n">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
         <v>44540</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" t="s">
         <v>30</v>
       </c>
       <c r="D42" s="5" t="s">
@@ -2422,14 +2730,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="n">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
         <v>44540</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" t="s">
         <v>23</v>
       </c>
       <c r="D43" s="5" t="s">
@@ -2438,18 +2746,18 @@
       <c r="E43" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F43" s="0" t="s">
+      <c r="F43" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="n">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
         <v>44540</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" t="s">
         <v>24</v>
       </c>
       <c r="D44" s="5" t="s">
@@ -2458,18 +2766,18 @@
       <c r="E44" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F44" s="0" t="s">
+      <c r="F44" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="n">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
         <v>44540</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" t="s">
         <v>21</v>
       </c>
       <c r="D45" s="5" t="s">
@@ -2479,14 +2787,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="n">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
         <v>44540</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" t="s">
         <v>26</v>
       </c>
       <c r="D46" s="5" t="s">
@@ -2496,14 +2804,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="n">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
         <v>44540</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" t="s">
         <v>28</v>
       </c>
       <c r="D47" s="5" t="s">
@@ -2513,14 +2821,14 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="n">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
         <v>44540</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="5" t="s">
@@ -2530,14 +2838,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="n">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
         <v>44540</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" t="s">
         <v>32</v>
       </c>
       <c r="D49" s="5" t="s">
@@ -2547,14 +2855,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="n">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
         <v>44540</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" t="s">
         <v>33</v>
       </c>
       <c r="D50" s="5" t="s">
@@ -2564,14 +2872,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="n">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
         <v>44540</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" t="s">
         <v>35</v>
       </c>
       <c r="D51" s="5" t="s">
@@ -2580,18 +2888,18 @@
       <c r="E51" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F51" s="0" t="s">
+      <c r="F51" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="n">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
         <v>44540</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" t="s">
         <v>36</v>
       </c>
       <c r="D52" s="5" t="s">
@@ -2600,18 +2908,18 @@
       <c r="E52" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F52" s="0" t="s">
+      <c r="F52" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="n">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
         <v>44540</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" t="s">
         <v>38</v>
       </c>
       <c r="D53" s="5" t="s">
@@ -2621,14 +2929,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="n">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
         <v>44540</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" t="s">
         <v>43</v>
       </c>
       <c r="D54" s="5" t="s">
@@ -2637,18 +2945,18 @@
       <c r="E54" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F54" s="0" t="s">
+      <c r="F54" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="n">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
         <v>44540</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" t="s">
         <v>45</v>
       </c>
       <c r="D55" s="5" t="s">
@@ -2658,14 +2966,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="n">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
         <v>44540</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" t="s">
         <v>47</v>
       </c>
       <c r="D56" s="5" t="s">
@@ -2674,18 +2982,18 @@
       <c r="E56" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F56" s="0" t="s">
+      <c r="F56" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="n">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
         <v>44540</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" t="s">
         <v>48</v>
       </c>
       <c r="D57" s="5" t="s">
@@ -2695,14 +3003,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="n">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
         <v>44540</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="5" t="s">
@@ -2711,18 +3019,18 @@
       <c r="E58" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F58" s="0" t="s">
+      <c r="F58" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="n">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
         <v>44540</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="5" t="s">
@@ -2732,14 +3040,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="n">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
         <v>44540</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" t="s">
         <v>40</v>
       </c>
       <c r="D60" s="5" t="s">
@@ -2748,18 +3056,18 @@
       <c r="E60" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F60" s="0" t="s">
+      <c r="F60" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="n">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
         <v>44540</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" t="s">
         <v>41</v>
       </c>
       <c r="D61" s="5" t="s">
@@ -2768,18 +3076,18 @@
       <c r="E61" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F61" s="0" t="s">
+      <c r="F61" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="n">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
         <v>44244</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" t="s">
         <v>73</v>
       </c>
       <c r="D62" s="5" t="s">
@@ -2788,18 +3096,18 @@
       <c r="E62" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F62" s="0" t="s">
+      <c r="F62" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="n">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
         <v>44244</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" t="s">
         <v>76</v>
       </c>
       <c r="D63" s="5" t="s">
@@ -2809,14 +3117,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="n">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
         <v>44244</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" t="s">
         <v>78</v>
       </c>
       <c r="D64" s="5" t="s">
@@ -2826,14 +3134,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4" t="n">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
         <v>44244</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" t="s">
         <v>79</v>
       </c>
       <c r="D65" s="5" t="s">
@@ -2843,14 +3151,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4" t="n">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
         <v>44244</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" t="s">
         <v>81</v>
       </c>
       <c r="D66" s="5" t="s">
@@ -2860,14 +3168,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4" t="n">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
         <v>44244</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" t="s">
         <v>83</v>
       </c>
       <c r="D67" s="5" t="s">
@@ -2876,45 +3184,37 @@
       <c r="E67" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F67" s="0" t="s">
+      <c r="F67" t="s">
         <v>84</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <tableParts>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D125" activeCellId="0" sqref="D125"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="10.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.53"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2928,64 +3228,56 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>44498</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>44547</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="6" t="n">
+      <c r="C3" s="6">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <tableParts>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D125" activeCellId="0" sqref="D125"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="10.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.53"/>
+    <col min="1" max="1" width="10.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="1" customWidth="1"/>
+    <col min="3" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>86</v>
       </c>
@@ -2993,152 +3285,152 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="n">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="n">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="n">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="n">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="n">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="n">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="n">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="n">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="n">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="n">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="n">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -3146,40 +3438,32 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <tableParts>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D125" activeCellId="0" sqref="D125"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="9.14"/>
+    <col min="1" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="1" customWidth="1"/>
+    <col min="7" max="1025" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -3199,353 +3483,353 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="9" t="n">
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9">
         <v>1</v>
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="n">
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="9" t="n">
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9">
         <v>1</v>
       </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>3</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="9" t="n">
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9">
         <v>1</v>
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="1">
         <v>3</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="9" t="n">
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9">
         <v>1</v>
       </c>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="9" t="n">
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9">
         <v>1</v>
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="1">
         <v>3</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="1">
         <v>3</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="1">
         <v>3</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="1">
         <v>3</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="9" t="n">
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9">
         <v>1</v>
       </c>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="1">
         <v>3</v>
       </c>
-      <c r="D19" s="9" t="n">
+      <c r="D19" s="9">
         <v>2</v>
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>49</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="9" t="n">
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9">
         <v>1</v>
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>51</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="1">
         <v>1</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="1">
         <v>3</v>
       </c>
-      <c r="D22" s="9" t="n">
+      <c r="D22" s="9">
         <v>2</v>
       </c>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="13" t="n">
+      <c r="C23" s="13">
         <v>3</v>
       </c>
-      <c r="D23" s="14" t="n">
+      <c r="D23" s="14">
         <v>3</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="13"/>
     </row>
-    <row r="24" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>77</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="13" t="n">
+      <c r="C24" s="13">
         <v>3</v>
       </c>
-      <c r="D24" s="14" t="n">
+      <c r="D24" s="14">
         <v>3</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="13"/>
     </row>
-    <row r="25" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>80</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="13" t="n">
+      <c r="C25" s="13">
         <v>1</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="13"/>
     </row>
-    <row r="26" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>82</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="13" t="n">
+      <c r="C26" s="13">
         <v>1</v>
       </c>
       <c r="D26" s="14"/>
@@ -3553,41 +3837,33 @@
       <c r="F26" s="13"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <tableParts>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D125" activeCellId="0" sqref="D125"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.53"/>
+    <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="5" customWidth="1"/>
+    <col min="6" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -3601,467 +3877,459 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="4">
         <v>44235</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="1">
         <v>380</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="4">
         <v>44215</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="1">
         <v>380</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="4">
         <v>44203</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="1">
         <v>380</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="4">
         <v>44239</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="1">
         <v>380</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="4">
         <v>44243</v>
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="4">
         <v>44246</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="1">
         <v>380</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="4">
         <v>44244</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="1">
         <v>380</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="4">
         <v>44244</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="1">
         <v>380</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="4">
         <v>44243</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="1">
         <v>380</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="4">
         <v>44245</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="1">
         <v>380</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="4">
         <v>44245</v>
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="4">
         <v>44242</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="1">
         <v>380</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="4">
         <v>44342</v>
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="4">
         <v>44342</v>
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="4">
         <v>44342</v>
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="4" t="n">
+      <c r="C17" s="4">
         <v>44344</v>
       </c>
-      <c r="D17" s="1" t="n">
+      <c r="D17" s="1">
         <v>380</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="4" t="n">
+      <c r="C18" s="4">
         <v>44344</v>
       </c>
-      <c r="D18" s="1" t="n">
+      <c r="D18" s="1">
         <v>380</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="4" t="n">
+      <c r="C19" s="4">
         <v>44347</v>
       </c>
-      <c r="D19" s="1" t="n">
+      <c r="D19" s="1">
         <v>380</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="4" t="n">
+      <c r="C20" s="4">
         <v>44347</v>
       </c>
-      <c r="D20" s="1" t="n">
+      <c r="D20" s="1">
         <v>380</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="4" t="n">
+      <c r="C21" s="4">
         <v>44348</v>
       </c>
-      <c r="D21" s="1" t="n">
+      <c r="D21" s="1">
         <v>380</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="4" t="n">
+      <c r="C22" s="4">
         <v>44350</v>
       </c>
-      <c r="D22" s="1" t="n">
+      <c r="D22" s="1">
         <v>380</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="4" t="n">
+      <c r="C23" s="4">
         <v>44342</v>
       </c>
-      <c r="D23" s="1" t="n">
+      <c r="D23" s="1">
         <v>380</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="4" t="n">
+      <c r="C24" s="4">
         <v>44342</v>
       </c>
-      <c r="D24" s="1" t="n">
+      <c r="D24" s="1">
         <v>380</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="4" t="n">
+      <c r="C25" s="4">
         <v>44252</v>
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="4" t="n">
+      <c r="C26" s="4">
         <v>44252</v>
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="4" t="n">
+      <c r="C27" s="4">
         <v>44265</v>
       </c>
-      <c r="D27" s="1" t="n">
+      <c r="D27" s="1">
         <v>380</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="4" t="n">
+      <c r="C28" s="4">
         <v>44265</v>
       </c>
-      <c r="D28" s="1" t="n">
+      <c r="D28" s="1">
         <v>380</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="4" t="n">
+      <c r="C29" s="4">
         <v>44265</v>
       </c>
-      <c r="D29" s="1" t="n">
+      <c r="D29" s="1">
         <v>369</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="4" t="n">
+      <c r="C30" s="4">
         <v>44265</v>
       </c>
-      <c r="D30" s="1" t="n">
+      <c r="D30" s="1">
         <v>380</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="4" t="n">
+      <c r="C31" s="4">
         <v>44265</v>
       </c>
-      <c r="D31" s="1" t="n">
+      <c r="D31" s="1">
         <v>380</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="4" t="n">
+      <c r="C32" s="4">
         <v>44265</v>
       </c>
-      <c r="D32" s="1" t="n">
+      <c r="D32" s="1">
         <v>380</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <tableParts>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M105" activeCellId="0" sqref="M105"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="17" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="17" width="9.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="17" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="7.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="36.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="5" width="15.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.53"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="17" customWidth="1"/>
+    <col min="6" max="8" width="7.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="36.140625" customWidth="1"/>
+    <col min="10" max="10" width="35" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+    <col min="13" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -4099,192 +4367,192 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="0" t="s">
+      <c r="C2" s="17">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
         <v>114</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" t="s">
         <v>115</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="L2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I3" s="0" t="s">
+      <c r="C3" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I3" t="s">
         <v>118</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" t="s">
         <v>119</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="0" t="s">
+      <c r="C4" s="17">
+        <v>1</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
         <v>121</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" t="s">
         <v>122</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="L4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E5" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I5" s="0" t="s">
+      <c r="C5" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I5" t="s">
         <v>124</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" t="s">
         <v>125</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="L5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="0" t="s">
+      <c r="C6" s="17">
+        <v>1</v>
+      </c>
+      <c r="E6" s="17">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
         <v>127</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" t="s">
         <v>128</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="L6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E7" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I7" s="0" t="s">
+      <c r="C7" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I7" t="s">
         <v>130</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="J7" t="s">
         <v>131</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="L7" s="0" t="s">
+      <c r="L7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="0" t="s">
+      <c r="D8" s="17">
+        <v>1</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
         <v>133</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="J8" t="s">
         <v>134</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="L8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E9" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I9" s="0" t="s">
+      <c r="D9" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I9" t="s">
         <v>136</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="J9" t="s">
         <v>137</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="L9" s="0" t="s">
+      <c r="L9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="17" t="n">
+      <c r="D10" s="17">
+        <v>1</v>
+      </c>
+      <c r="E10" s="17">
         <v>1</v>
       </c>
       <c r="I10" s="19" t="s">
@@ -4300,14 +4568,14 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E11" s="17" t="n">
+      <c r="D11" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="17">
         <v>-1</v>
       </c>
       <c r="I11" s="19" t="s">
@@ -4323,14 +4591,14 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="17" t="n">
+      <c r="C12" s="17">
+        <v>1</v>
+      </c>
+      <c r="E12" s="17">
         <v>1</v>
       </c>
       <c r="I12" s="19" t="s">
@@ -4346,14 +4614,14 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E13" s="17" t="n">
+      <c r="C13" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E13" s="17">
         <v>-1</v>
       </c>
       <c r="I13" s="19" t="s">
@@ -4369,14 +4637,14 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="17" t="n">
+      <c r="D14" s="17">
+        <v>1</v>
+      </c>
+      <c r="E14" s="17">
         <v>1</v>
       </c>
       <c r="I14" s="19" t="s">
@@ -4392,14 +4660,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E15" s="17" t="n">
+      <c r="D15" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="17">
         <v>-1</v>
       </c>
       <c r="I15" s="19" t="s">
@@ -4415,14 +4683,14 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="17" t="n">
+      <c r="C16" s="17">
+        <v>1</v>
+      </c>
+      <c r="E16" s="17">
         <v>1</v>
       </c>
       <c r="I16" s="19" t="s">
@@ -4438,14 +4706,14 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E17" s="17" t="n">
+      <c r="C17" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E17" s="17">
         <v>-1</v>
       </c>
       <c r="I17" s="19" t="s">
@@ -4461,14 +4729,14 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="17" t="n">
+      <c r="C18" s="17">
+        <v>1</v>
+      </c>
+      <c r="E18" s="17">
         <v>1</v>
       </c>
       <c r="I18" s="19" t="s">
@@ -4484,14 +4752,14 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E19" s="17" t="n">
+      <c r="C19" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E19" s="17">
         <v>-1</v>
       </c>
       <c r="I19" s="19" t="s">
@@ -4507,14 +4775,14 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="17" t="n">
+      <c r="C20" s="17">
+        <v>1</v>
+      </c>
+      <c r="E20" s="17">
         <v>1</v>
       </c>
       <c r="I20" s="19" t="s">
@@ -4530,14 +4798,14 @@
         <v>167</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E21" s="17" t="n">
+      <c r="C21" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E21" s="17">
         <v>-1</v>
       </c>
       <c r="I21" s="19" t="s">
@@ -4553,14 +4821,14 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="17" t="n">
+      <c r="D22" s="17">
+        <v>1</v>
+      </c>
+      <c r="E22" s="17">
         <v>1</v>
       </c>
       <c r="I22" s="19" t="s">
@@ -4576,14 +4844,14 @@
         <v>173</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E23" s="17" t="n">
+      <c r="D23" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E23" s="17">
         <v>-1</v>
       </c>
       <c r="I23" s="19" t="s">
@@ -4599,14 +4867,14 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="17" t="n">
+      <c r="D24" s="17">
+        <v>1</v>
+      </c>
+      <c r="E24" s="17">
         <v>1</v>
       </c>
       <c r="I24" s="19" t="s">
@@ -4622,14 +4890,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E25" s="17" t="n">
+      <c r="D25" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E25" s="17">
         <v>-1</v>
       </c>
       <c r="I25" s="19" t="s">
@@ -4645,11 +4913,11 @@
         <v>182</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="17" t="n">
+      <c r="D26" s="17">
         <v>1</v>
       </c>
       <c r="I26" s="19" t="s">
@@ -4665,11 +4933,11 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="17" t="n">
+      <c r="D27" s="17">
         <v>-1</v>
       </c>
       <c r="I27" s="19" t="s">
@@ -4685,290 +4953,290 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" s="0" t="s">
+      <c r="C28" s="17">
+        <v>1</v>
+      </c>
+      <c r="E28" s="17">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
         <v>187</v>
       </c>
-      <c r="J28" s="0" t="s">
+      <c r="J28" t="s">
         <v>188</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="L28" s="0" t="s">
+      <c r="L28" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E29" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I29" s="0" t="s">
+      <c r="C29" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E29" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I29" t="s">
         <v>189</v>
       </c>
-      <c r="J29" s="0" t="s">
+      <c r="J29" t="s">
         <v>190</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="L29" s="0" t="s">
+      <c r="L29" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" s="0" t="s">
+      <c r="C30" s="17">
+        <v>1</v>
+      </c>
+      <c r="E30" s="17">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
         <v>191</v>
       </c>
-      <c r="J30" s="0" t="s">
+      <c r="J30" t="s">
         <v>192</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="L30" s="0" t="s">
+      <c r="L30" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E31" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I31" s="0" t="s">
+      <c r="C31" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E31" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I31" t="s">
         <v>194</v>
       </c>
-      <c r="J31" s="0" t="s">
+      <c r="J31" t="s">
         <v>195</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="L31" s="0" t="s">
+      <c r="L31" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" s="0" t="s">
+      <c r="C32" s="17">
+        <v>1</v>
+      </c>
+      <c r="E32" s="17">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
         <v>197</v>
       </c>
-      <c r="J32" s="0" t="s">
+      <c r="J32" t="s">
         <v>198</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="L32" s="0" t="s">
+      <c r="L32" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E33" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I33" s="0" t="s">
+      <c r="C33" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E33" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I33" t="s">
         <v>200</v>
       </c>
-      <c r="J33" s="0" t="s">
+      <c r="J33" t="s">
         <v>201</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="L33" s="0" t="s">
+      <c r="L33" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" s="0" t="s">
+      <c r="C34" s="17">
+        <v>1</v>
+      </c>
+      <c r="E34" s="17">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
         <v>203</v>
       </c>
-      <c r="J34" s="0" t="s">
+      <c r="J34" t="s">
         <v>204</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="L34" s="0" t="s">
+      <c r="L34" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E35" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I35" s="0" t="s">
+      <c r="C35" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E35" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I35" t="s">
         <v>205</v>
       </c>
-      <c r="J35" s="0" t="s">
+      <c r="J35" t="s">
         <v>206</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="L35" s="0" t="s">
+      <c r="L35" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" s="0" t="s">
+      <c r="D36" s="17">
+        <v>1</v>
+      </c>
+      <c r="E36" s="17">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
         <v>207</v>
       </c>
-      <c r="J36" s="0" t="s">
+      <c r="J36" t="s">
         <v>208</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="L36" s="0" t="s">
+      <c r="L36" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E37" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I37" s="0" t="s">
+      <c r="D37" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E37" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I37" t="s">
         <v>209</v>
       </c>
-      <c r="J37" s="0" t="s">
+      <c r="J37" t="s">
         <v>210</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="L37" s="0" t="s">
+      <c r="L37" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" s="0" t="s">
+      <c r="C38" s="17">
+        <v>1</v>
+      </c>
+      <c r="E38" s="17">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
         <v>211</v>
       </c>
-      <c r="J38" s="0" t="s">
+      <c r="J38" t="s">
         <v>212</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="L38" s="0" t="s">
+      <c r="L38" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E39" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I39" s="0" t="s">
+      <c r="C39" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E39" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I39" t="s">
         <v>214</v>
       </c>
-      <c r="J39" s="0" t="s">
+      <c r="J39" t="s">
         <v>215</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="L39" s="0" t="s">
+      <c r="L39" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="17" t="n">
+      <c r="C40" s="17">
+        <v>1</v>
+      </c>
+      <c r="E40" s="17">
         <v>1</v>
       </c>
       <c r="I40" s="19" t="s">
@@ -4984,14 +5252,14 @@
         <v>129</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E41" s="17" t="n">
+      <c r="C41" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E41" s="17">
         <v>-1</v>
       </c>
       <c r="I41" s="19" t="s">
@@ -5007,14 +5275,14 @@
         <v>132</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="17" t="n">
+      <c r="C42" s="17">
+        <v>1</v>
+      </c>
+      <c r="E42" s="17">
         <v>1</v>
       </c>
       <c r="I42" s="21" t="s">
@@ -5026,18 +5294,18 @@
       <c r="K42" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="L42" s="0" t="s">
+      <c r="L42" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E43" s="17" t="n">
+      <c r="C43" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E43" s="17">
         <v>-1</v>
       </c>
       <c r="I43" s="21" t="s">
@@ -5049,248 +5317,248 @@
       <c r="K43" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="L43" s="0" t="s">
+      <c r="L43" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" s="0" t="s">
+      <c r="D44" s="17">
+        <v>1</v>
+      </c>
+      <c r="E44" s="17">
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
         <v>227</v>
       </c>
-      <c r="J44" s="0" t="s">
+      <c r="J44" t="s">
         <v>228</v>
       </c>
       <c r="K44" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="L44" s="0" t="s">
+      <c r="L44" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E45" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I45" s="0" t="s">
+      <c r="D45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I45" t="s">
         <v>229</v>
       </c>
-      <c r="J45" s="0" t="s">
+      <c r="J45" t="s">
         <v>230</v>
       </c>
       <c r="K45" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="L45" s="0" t="s">
+      <c r="L45" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" s="0" t="s">
+      <c r="C46" s="17">
+        <v>1</v>
+      </c>
+      <c r="E46" s="17">
+        <v>1</v>
+      </c>
+      <c r="I46" t="s">
         <v>231</v>
       </c>
-      <c r="J46" s="0" t="s">
+      <c r="J46" t="s">
         <v>232</v>
       </c>
       <c r="K46" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="L46" s="0" t="s">
+      <c r="L46" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E47" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I47" s="0" t="s">
+      <c r="C47" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E47" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I47" t="s">
         <v>233</v>
       </c>
-      <c r="J47" s="0" t="s">
+      <c r="J47" t="s">
         <v>234</v>
       </c>
       <c r="K47" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="L47" s="0" t="s">
+      <c r="L47" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" s="0" t="s">
+      <c r="D48" s="17">
+        <v>1</v>
+      </c>
+      <c r="E48" s="17">
+        <v>1</v>
+      </c>
+      <c r="I48" t="s">
         <v>235</v>
       </c>
-      <c r="J48" s="0" t="s">
+      <c r="J48" t="s">
         <v>236</v>
       </c>
       <c r="K48" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="L48" s="0" t="s">
+      <c r="L48" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E49" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I49" s="0" t="s">
+      <c r="D49" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E49" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I49" t="s">
         <v>237</v>
       </c>
-      <c r="J49" s="0" t="s">
+      <c r="J49" t="s">
         <v>238</v>
       </c>
       <c r="K49" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="L49" s="0" t="s">
+      <c r="L49" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" s="0" t="s">
+      <c r="C50" s="17">
+        <v>1</v>
+      </c>
+      <c r="E50" s="17">
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
         <v>239</v>
       </c>
-      <c r="J50" s="0" t="s">
+      <c r="J50" t="s">
         <v>240</v>
       </c>
       <c r="K50" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="L50" s="0" t="s">
+      <c r="L50" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E51" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I51" s="0" t="s">
+      <c r="C51" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E51" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I51" t="s">
         <v>242</v>
       </c>
-      <c r="J51" s="0" t="s">
+      <c r="J51" t="s">
         <v>243</v>
       </c>
       <c r="K51" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="L51" s="0" t="s">
+      <c r="L51" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" s="0" t="s">
+      <c r="D52" s="17">
+        <v>1</v>
+      </c>
+      <c r="E52" s="17">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
         <v>245</v>
       </c>
-      <c r="J52" s="0" t="s">
+      <c r="J52" t="s">
         <v>246</v>
       </c>
       <c r="K52" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="L52" s="0" t="s">
+      <c r="L52" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E53" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I53" s="0" t="s">
+      <c r="D53" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E53" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I53" t="s">
         <v>247</v>
       </c>
-      <c r="J53" s="0" t="s">
+      <c r="J53" t="s">
         <v>248</v>
       </c>
       <c r="K53" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="L53" s="0" t="s">
+      <c r="L53" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>249</v>
       </c>
-      <c r="C54" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E54" s="17" t="n">
+      <c r="C54" s="17">
+        <v>1</v>
+      </c>
+      <c r="E54" s="17">
         <v>1</v>
       </c>
       <c r="I54" s="19" t="s">
@@ -5306,14 +5574,14 @@
         <v>252</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>249</v>
       </c>
-      <c r="C55" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E55" s="17" t="n">
+      <c r="C55" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E55" s="17">
         <v>-1</v>
       </c>
       <c r="I55" s="19" t="s">
@@ -5329,14 +5597,14 @@
         <v>255</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>249</v>
       </c>
-      <c r="C56" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" s="17" t="n">
+      <c r="C56" s="17">
+        <v>1</v>
+      </c>
+      <c r="E56" s="17">
         <v>1</v>
       </c>
       <c r="I56" s="19" t="s">
@@ -5352,14 +5620,14 @@
         <v>258</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>249</v>
       </c>
-      <c r="C57" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E57" s="17" t="n">
+      <c r="C57" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E57" s="17">
         <v>-1</v>
       </c>
       <c r="I57" s="19" t="s">
@@ -5375,14 +5643,14 @@
         <v>261</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>249</v>
       </c>
-      <c r="C58" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E58" s="17" t="n">
+      <c r="C58" s="17">
+        <v>1</v>
+      </c>
+      <c r="E58" s="17">
         <v>1</v>
       </c>
       <c r="I58" s="19" t="s">
@@ -5398,14 +5666,14 @@
         <v>264</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>249</v>
       </c>
-      <c r="C59" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E59" s="17" t="n">
+      <c r="C59" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E59" s="17">
         <v>-1</v>
       </c>
       <c r="I59" s="19" t="s">
@@ -5421,15 +5689,15 @@
         <v>267</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="22" t="n">
+      <c r="C60" s="22">
         <v>1</v>
       </c>
       <c r="D60" s="22"/>
-      <c r="E60" s="22" t="n">
+      <c r="E60" s="22">
         <v>1</v>
       </c>
       <c r="I60" s="19" t="s">
@@ -5445,15 +5713,15 @@
         <v>270</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>19</v>
       </c>
-      <c r="C61" s="23" t="n">
+      <c r="C61" s="23">
         <v>-1</v>
       </c>
       <c r="D61" s="23"/>
-      <c r="E61" s="23" t="n">
+      <c r="E61" s="23">
         <v>-1</v>
       </c>
       <c r="I61" s="19" t="s">
@@ -5469,15 +5737,15 @@
         <v>273</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>19</v>
       </c>
-      <c r="C62" s="22" t="n">
+      <c r="C62" s="22">
         <v>1</v>
       </c>
       <c r="D62" s="22"/>
-      <c r="E62" s="22" t="n">
+      <c r="E62" s="22">
         <v>1</v>
       </c>
       <c r="I62" s="19" t="s">
@@ -5493,15 +5761,15 @@
         <v>276</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>19</v>
       </c>
-      <c r="C63" s="23" t="n">
+      <c r="C63" s="23">
         <v>-1</v>
       </c>
       <c r="D63" s="23"/>
-      <c r="E63" s="23" t="n">
+      <c r="E63" s="23">
         <v>-1</v>
       </c>
       <c r="I63" s="19" t="s">
@@ -5517,15 +5785,15 @@
         <v>279</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>19</v>
       </c>
-      <c r="C64" s="22" t="n">
+      <c r="C64" s="22">
         <v>1</v>
       </c>
       <c r="D64" s="22"/>
-      <c r="E64" s="22" t="n">
+      <c r="E64" s="22">
         <v>1</v>
       </c>
       <c r="I64" s="19" t="s">
@@ -5541,15 +5809,15 @@
         <v>282</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="24" t="n">
+      <c r="C65" s="24">
         <v>-1</v>
       </c>
       <c r="D65" s="24"/>
-      <c r="E65" s="24" t="n">
+      <c r="E65" s="24">
         <v>-1</v>
       </c>
       <c r="I65" s="19" t="s">
@@ -5565,15 +5833,15 @@
         <v>285</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>33</v>
       </c>
-      <c r="C66" s="22" t="n">
+      <c r="C66" s="22">
         <v>1</v>
       </c>
       <c r="D66" s="22"/>
-      <c r="E66" s="22" t="n">
+      <c r="E66" s="22">
         <v>1</v>
       </c>
       <c r="I66" s="19" t="s">
@@ -5589,15 +5857,15 @@
         <v>167</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>33</v>
       </c>
-      <c r="C67" s="23" t="n">
+      <c r="C67" s="23">
         <v>-1</v>
       </c>
       <c r="D67" s="23"/>
-      <c r="E67" s="23" t="n">
+      <c r="E67" s="23">
         <v>-1</v>
       </c>
       <c r="I67" s="19" t="s">
@@ -5613,15 +5881,15 @@
         <v>170</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>33</v>
       </c>
-      <c r="C68" s="22" t="n">
+      <c r="C68" s="22">
         <v>1</v>
       </c>
       <c r="D68" s="22"/>
-      <c r="E68" s="22" t="n">
+      <c r="E68" s="22">
         <v>1</v>
       </c>
       <c r="I68" s="19" t="s">
@@ -5637,15 +5905,15 @@
         <v>123</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>33</v>
       </c>
-      <c r="C69" s="23" t="n">
+      <c r="C69" s="23">
         <v>-1</v>
       </c>
       <c r="D69" s="23"/>
-      <c r="E69" s="23" t="n">
+      <c r="E69" s="23">
         <v>-1</v>
       </c>
       <c r="I69" s="19" t="s">
@@ -5661,15 +5929,15 @@
         <v>126</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>33</v>
       </c>
-      <c r="C70" s="22" t="n">
+      <c r="C70" s="22">
         <v>1</v>
       </c>
       <c r="D70" s="22"/>
-      <c r="E70" s="22" t="n">
+      <c r="E70" s="22">
         <v>1</v>
       </c>
       <c r="I70" s="19" t="s">
@@ -5685,15 +5953,15 @@
         <v>129</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>33</v>
       </c>
-      <c r="C71" s="23" t="n">
+      <c r="C71" s="23">
         <v>-1</v>
       </c>
       <c r="D71" s="23"/>
-      <c r="E71" s="23" t="n">
+      <c r="E71" s="23">
         <v>-1</v>
       </c>
       <c r="I71" s="19" t="s">
@@ -5709,15 +5977,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>32</v>
       </c>
       <c r="C72" s="22"/>
-      <c r="D72" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E72" s="22" t="n">
+      <c r="D72" s="22">
+        <v>1</v>
+      </c>
+      <c r="E72" s="22">
         <v>1</v>
       </c>
       <c r="I72" s="19" t="s">
@@ -5733,15 +6001,15 @@
         <v>173</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>32</v>
       </c>
       <c r="C73" s="23"/>
-      <c r="D73" s="23" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E73" s="23" t="n">
+      <c r="D73" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E73" s="23">
         <v>-1</v>
       </c>
       <c r="I73" s="19" t="s">
@@ -5757,15 +6025,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>32</v>
       </c>
       <c r="C74" s="22"/>
-      <c r="D74" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E74" s="22" t="n">
+      <c r="D74" s="22">
+        <v>1</v>
+      </c>
+      <c r="E74" s="22">
         <v>1</v>
       </c>
       <c r="I74" s="19" t="s">
@@ -5781,15 +6049,15 @@
         <v>179</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>32</v>
       </c>
       <c r="C75" s="24"/>
-      <c r="D75" s="24" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E75" s="24" t="n">
+      <c r="D75" s="24">
+        <v>-1</v>
+      </c>
+      <c r="E75" s="24">
         <v>-1</v>
       </c>
       <c r="I75" s="19" t="s">
@@ -5805,15 +6073,15 @@
         <v>182</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>38</v>
       </c>
-      <c r="C76" s="22" t="n">
+      <c r="C76" s="22">
         <v>1</v>
       </c>
       <c r="D76" s="22"/>
-      <c r="E76" s="22" t="n">
+      <c r="E76" s="22">
         <v>1</v>
       </c>
       <c r="I76" s="19" t="s">
@@ -5829,15 +6097,15 @@
         <v>167</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>38</v>
       </c>
-      <c r="C77" s="23" t="n">
+      <c r="C77" s="23">
         <v>-1</v>
       </c>
       <c r="D77" s="23"/>
-      <c r="E77" s="23" t="n">
+      <c r="E77" s="23">
         <v>-1</v>
       </c>
       <c r="I77" s="19" t="s">
@@ -5853,15 +6121,15 @@
         <v>170</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>38</v>
       </c>
-      <c r="C78" s="22" t="n">
+      <c r="C78" s="22">
         <v>1</v>
       </c>
       <c r="D78" s="22"/>
-      <c r="E78" s="22" t="n">
+      <c r="E78" s="22">
         <v>1</v>
       </c>
       <c r="I78" s="19" t="s">
@@ -5877,15 +6145,15 @@
         <v>123</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>38</v>
       </c>
-      <c r="C79" s="23" t="n">
+      <c r="C79" s="23">
         <v>-1</v>
       </c>
       <c r="D79" s="23"/>
-      <c r="E79" s="23" t="n">
+      <c r="E79" s="23">
         <v>-1</v>
       </c>
       <c r="I79" s="19" t="s">
@@ -5901,15 +6169,15 @@
         <v>126</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>38</v>
       </c>
-      <c r="C80" s="22" t="n">
+      <c r="C80" s="22">
         <v>1</v>
       </c>
       <c r="D80" s="22"/>
-      <c r="E80" s="22" t="n">
+      <c r="E80" s="22">
         <v>1</v>
       </c>
       <c r="I80" s="19" t="s">
@@ -5925,15 +6193,15 @@
         <v>129</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>38</v>
       </c>
-      <c r="C81" s="24" t="n">
+      <c r="C81" s="24">
         <v>-1</v>
       </c>
       <c r="D81" s="24"/>
-      <c r="E81" s="24" t="n">
+      <c r="E81" s="24">
         <v>-1</v>
       </c>
       <c r="I81" s="19" t="s">
@@ -5949,11 +6217,11 @@
         <v>132</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>73</v>
       </c>
-      <c r="D82" s="22" t="n">
+      <c r="D82" s="22">
         <v>1</v>
       </c>
       <c r="I82" s="19" t="s">
@@ -5969,11 +6237,11 @@
         <v>320</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>73</v>
       </c>
-      <c r="D83" s="24" t="n">
+      <c r="D83" s="24">
         <v>-1</v>
       </c>
       <c r="I83" s="19" t="s">
@@ -5989,11 +6257,11 @@
         <v>323</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>73</v>
       </c>
-      <c r="D84" s="22" t="n">
+      <c r="D84" s="22">
         <v>1</v>
       </c>
       <c r="I84" s="19" t="s">
@@ -6009,11 +6277,11 @@
         <v>326</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>73</v>
       </c>
-      <c r="D85" s="24" t="n">
+      <c r="D85" s="24">
         <v>-1</v>
       </c>
       <c r="I85" s="19" t="s">
@@ -6029,11 +6297,11 @@
         <v>329</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>73</v>
       </c>
-      <c r="D86" s="22" t="n">
+      <c r="D86" s="22">
         <v>1</v>
       </c>
       <c r="I86" s="19" t="s">
@@ -6049,11 +6317,11 @@
         <v>332</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>73</v>
       </c>
-      <c r="D87" s="24" t="n">
+      <c r="D87" s="24">
         <v>-1</v>
       </c>
       <c r="I87" s="19" t="s">
@@ -6069,11 +6337,11 @@
         <v>335</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>76</v>
       </c>
-      <c r="C88" s="22" t="n">
+      <c r="C88" s="22">
         <v>1</v>
       </c>
       <c r="I88" s="19" t="s">
@@ -6089,11 +6357,11 @@
         <v>252</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>76</v>
       </c>
-      <c r="C89" s="23" t="n">
+      <c r="C89" s="23">
         <v>-1</v>
       </c>
       <c r="I89" s="19" t="s">
@@ -6109,11 +6377,11 @@
         <v>255</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>76</v>
       </c>
-      <c r="C90" s="22" t="n">
+      <c r="C90" s="22">
         <v>1</v>
       </c>
       <c r="I90" s="19" t="s">
@@ -6129,11 +6397,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>76</v>
       </c>
-      <c r="C91" s="23" t="n">
+      <c r="C91" s="23">
         <v>-1</v>
       </c>
       <c r="I91" s="19" t="s">
@@ -6149,11 +6417,11 @@
         <v>261</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>76</v>
       </c>
-      <c r="C92" s="22" t="n">
+      <c r="C92" s="22">
         <v>1</v>
       </c>
       <c r="I92" s="19" t="s">
@@ -6169,11 +6437,11 @@
         <v>264</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>76</v>
       </c>
-      <c r="C93" s="24" t="n">
+      <c r="C93" s="24">
         <v>-1</v>
       </c>
       <c r="I93" s="25" t="s">
@@ -6189,14 +6457,14 @@
         <v>267</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>78</v>
       </c>
-      <c r="C94" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E94" s="22" t="n">
+      <c r="C94" s="17">
+        <v>1</v>
+      </c>
+      <c r="E94" s="22">
         <v>1</v>
       </c>
       <c r="I94" s="19" t="s">
@@ -6212,14 +6480,14 @@
         <v>252</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>78</v>
       </c>
-      <c r="C95" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E95" s="23" t="n">
+      <c r="C95" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E95" s="23">
         <v>-1</v>
       </c>
       <c r="I95" s="19" t="s">
@@ -6235,14 +6503,14 @@
         <v>255</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>78</v>
       </c>
-      <c r="C96" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E96" s="22" t="n">
+      <c r="C96" s="17">
+        <v>1</v>
+      </c>
+      <c r="E96" s="22">
         <v>1</v>
       </c>
       <c r="I96" s="19" t="s">
@@ -6258,14 +6526,14 @@
         <v>258</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>78</v>
       </c>
-      <c r="C97" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E97" s="23" t="n">
+      <c r="C97" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E97" s="23">
         <v>-1</v>
       </c>
       <c r="I97" s="19" t="s">
@@ -6281,14 +6549,14 @@
         <v>261</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>78</v>
       </c>
-      <c r="C98" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E98" s="22" t="n">
+      <c r="C98" s="17">
+        <v>1</v>
+      </c>
+      <c r="E98" s="22">
         <v>1</v>
       </c>
       <c r="I98" s="19" t="s">
@@ -6304,14 +6572,14 @@
         <v>264</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>78</v>
       </c>
-      <c r="C99" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E99" s="24" t="n">
+      <c r="C99" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E99" s="24">
         <v>-1</v>
       </c>
       <c r="I99" s="19" t="s">
@@ -6327,11 +6595,11 @@
         <v>267</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>79</v>
       </c>
-      <c r="D100" s="22" t="n">
+      <c r="D100" s="22">
         <v>1</v>
       </c>
       <c r="I100" s="19" t="s">
@@ -6344,210 +6612,205 @@
         <v>116</v>
       </c>
       <c r="L100" s="26" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>79</v>
+      </c>
+      <c r="D101" s="24">
+        <v>-1</v>
+      </c>
+      <c r="I101" s="19" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+      <c r="J101" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="K101" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="L101" s="26" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>79</v>
       </c>
-      <c r="D101" s="24" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I101" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="J101" s="19" t="s">
+      <c r="D102" s="22">
+        <v>1</v>
+      </c>
+      <c r="I102" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="K101" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="L101" s="26" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+      <c r="J102" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="K102" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="L102" s="26" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>79</v>
       </c>
-      <c r="D102" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="J102" s="19" t="s">
+      <c r="D103" s="24">
+        <v>-1</v>
+      </c>
+      <c r="I103" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="K102" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="L102" s="26" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+      <c r="J103" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="K103" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="L103" s="26" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>79</v>
       </c>
-      <c r="D103" s="24" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I103" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="J103" s="19" t="s">
+      <c r="D104" s="22">
+        <v>1</v>
+      </c>
+      <c r="I104" s="19" t="s">
         <v>368</v>
       </c>
-      <c r="K103" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="L103" s="26" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+      <c r="J104" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="K104" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="L104" s="26" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>79</v>
       </c>
-      <c r="D104" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="J104" s="19" t="s">
+      <c r="D105" s="24">
+        <v>-1</v>
+      </c>
+      <c r="I105" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="K104" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="L104" s="26" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="D105" s="24" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I105" s="19" t="s">
+      <c r="J105" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="J105" s="19" t="s">
+      <c r="K105" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="L105" s="26" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>81</v>
+      </c>
+      <c r="C106" s="17">
+        <v>1</v>
+      </c>
+      <c r="E106" s="17">
+        <v>1</v>
+      </c>
+      <c r="I106" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="K105" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="L105" s="26" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+      <c r="J106" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="K106" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L106" s="19" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>81</v>
       </c>
-      <c r="C106" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E106" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="J106" s="19" t="s">
-        <v>374</v>
-      </c>
-      <c r="K106" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="L106" s="19" t="s">
+      <c r="C107" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E107" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I107" s="19" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="107" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C107" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E107" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I107" s="19" t="s">
+      <c r="J107" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="J107" s="19" t="s">
+      <c r="K107" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="L107" s="19" t="s">
         <v>377</v>
       </c>
-      <c r="K107" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="L107" s="19" t="s">
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>83</v>
+      </c>
+      <c r="C108" s="17">
+        <v>1</v>
+      </c>
+      <c r="E108" s="17">
+        <v>1</v>
+      </c>
+      <c r="I108" s="19" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+      <c r="J108" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="K108" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L108" s="19" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>83</v>
       </c>
-      <c r="C108" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E108" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" s="19" t="s">
-        <v>379</v>
-      </c>
-      <c r="J108" s="19" t="s">
-        <v>380</v>
-      </c>
-      <c r="K108" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="L108" s="19" t="s">
+      <c r="C109" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E109" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I109" s="19" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="109" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C109" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E109" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I109" s="19" t="s">
+      <c r="J109" s="19" t="s">
         <v>382</v>
       </c>
-      <c r="J109" s="19" t="s">
+      <c r="K109" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="L109" s="19" t="s">
         <v>383</v>
       </c>
-      <c r="K109" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="L109" s="19" t="s">
-        <v>384</v>
-      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <tableParts>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
